--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/wp_2.2/4_twenty_bus_radial_grid_ynyn_sgen_pf_sc_results_0_bus_sgen471419.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/wp_2.2/4_twenty_bus_radial_grid_ynyn_sgen_pf_sc_results_0_bus_sgen471419.xlsx
@@ -571,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.75581479437321</v>
+        <v>57.76274299444472</v>
       </c>
       <c r="C2">
-        <v>1000.360056563926</v>
+        <v>1000.480056509215</v>
       </c>
       <c r="D2">
         <v>0.01094540889423945</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.05199950548747117</v>
+        <v>0.0693326730355891</v>
       </c>
       <c r="G3">
-        <v>0.9304373745866754</v>
+        <v>0.9304282662529713</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1004682540368846</v>
+        <v>0.1175436054457843</v>
       </c>
       <c r="G4">
-        <v>-9.780085376559839</v>
+        <v>-8.209685895356005</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.08407177608611213</v>
+        <v>0.101246431975072</v>
       </c>
       <c r="G5">
-        <v>-7.584183473040834</v>
+        <v>-6.131709261476303</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1004682547514677</v>
+        <v>0.1175436062375614</v>
       </c>
       <c r="G6">
-        <v>-9.780083432519158</v>
+        <v>-8.209684268677417</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1169708354315148</v>
+        <v>0.1339576730703475</v>
       </c>
       <c r="G7">
-        <v>-11.35818142795713</v>
+        <v>-9.780089703384121</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1335401873788042</v>
+        <v>0.1504503774376509</v>
       </c>
       <c r="G8">
-        <v>-12.54539248961096</v>
+        <v>-11.00695562447485</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1169708365209561</v>
+        <v>0.1339576742590663</v>
       </c>
       <c r="G9">
-        <v>-11.358179266368</v>
+        <v>-9.78008786233949</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1169708372472505</v>
+        <v>0.1339576750515457</v>
       </c>
       <c r="G10">
-        <v>-11.35817782530863</v>
+        <v>-9.780086634976445</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1169708376103976</v>
+        <v>0.1339576754477853</v>
       </c>
       <c r="G11">
-        <v>-11.35817710477893</v>
+        <v>-9.78008602129491</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.06785835200604007</v>
+        <v>0.08513330460949736</v>
       </c>
       <c r="G12">
-        <v>-4.332082975580588</v>
+        <v>-3.262083267335717</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.05199950772235545</v>
+        <v>0.1012464258529347</v>
       </c>
       <c r="G13">
-        <v>0.9304420966438797</v>
+        <v>-6.131719419749646</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.06785835371235065</v>
+        <v>0.08513330636974972</v>
       </c>
       <c r="G14">
-        <v>-4.332079147381328</v>
+        <v>-3.262080287668006</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.06785835480130309</v>
+        <v>0.08513330749464179</v>
       </c>
       <c r="G15">
-        <v>-4.332076596617999</v>
+        <v>-3.262078301703641</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.06785835141285325</v>
+        <v>0.0851333039990684</v>
       </c>
       <c r="G16">
-        <v>-4.332084218453411</v>
+        <v>-3.262084233797954</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.05199950697739406</v>
+        <v>0.08513330398807781</v>
       </c>
       <c r="G17">
-        <v>0.9304405226247976</v>
+        <v>-3.26208423145266</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.08407177425447351</v>
+        <v>0.1012464300235697</v>
       </c>
       <c r="G18">
-        <v>-7.584187668297568</v>
+        <v>-6.13171266083318</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1004682523598297</v>
+        <v>0.1175436036389462</v>
       </c>
       <c r="G19">
-        <v>-9.780088754570224</v>
+        <v>-8.209688709591598</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1004682536176209</v>
+        <v>0.1175436049940747</v>
       </c>
       <c r="G20">
-        <v>-9.780086221062469</v>
+        <v>-8.20968659891494</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1004682540368846</v>
+        <v>0.1175436054457843</v>
       </c>
       <c r="G21">
-        <v>-9.780085376559873</v>
+        <v>-8.209685895356033</v>
       </c>
     </row>
   </sheetData>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.01800287188676</v>
+        <v>50.02400288421318</v>
       </c>
       <c r="D2">
-        <v>50.01800287188676</v>
+        <v>50.02400288421318</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.779074224113</v>
+        <v>288.813715311431</v>
       </c>
       <c r="G2">
-        <v>288.779074224113</v>
+        <v>288.813715311431</v>
       </c>
       <c r="H2">
         <v>0.01094228914518902</v>
@@ -1127,34 +1127,34 @@
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.0109454088971403</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843073</v>
+        <v>0.0109454090857529</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.109454086782319</v>
       </c>
       <c r="N2">
-        <v>0.952970909808553</v>
+        <v>0.9530852248187273</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.952970909811559</v>
+        <v>0.9530852248217285</v>
       </c>
       <c r="Q2">
-        <v>-4.241941603798982E-08</v>
+        <v>-5.653022736194231E-08</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999577465</v>
+        <v>179.9999999436358</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1198,22 +1198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000091576685066</v>
+        <v>1.016076162899297</v>
       </c>
       <c r="O3">
-        <v>0.05447580914562509</v>
+        <v>0.07263441120871419</v>
       </c>
       <c r="P3">
-        <v>1.000934265522657</v>
+        <v>1.017182062756056</v>
       </c>
       <c r="Q3">
-        <v>1.604360084581356</v>
+        <v>2.10569322649632</v>
       </c>
       <c r="R3">
-        <v>-89.06944501928439</v>
+        <v>-89.06945410800679</v>
       </c>
       <c r="S3">
-        <v>178.484713918111</v>
+        <v>178.0117235405046</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.049988516185116</v>
+        <v>1.066026039298196</v>
       </c>
       <c r="O4">
-        <v>0.1029025701203298</v>
+        <v>0.12080468249981</v>
       </c>
       <c r="P4">
-        <v>1.034420448302254</v>
+        <v>1.05096125106722</v>
       </c>
       <c r="Q4">
-        <v>1.964667621355595</v>
+        <v>2.437110532602338</v>
       </c>
       <c r="R4">
-        <v>-99.52373502860644</v>
+        <v>-97.96082841123933</v>
       </c>
       <c r="S4">
-        <v>176.3702790402893</v>
+        <v>175.9454160326534</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1316,22 +1316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.033351735955189</v>
+        <v>1.049372241266074</v>
       </c>
       <c r="O5">
-        <v>0.08652164489167641</v>
+        <v>0.1045239907537671</v>
       </c>
       <c r="P5">
-        <v>1.023105279760143</v>
+        <v>1.039552942365841</v>
       </c>
       <c r="Q5">
-        <v>1.848431544315454</v>
+        <v>2.330143913575823</v>
       </c>
       <c r="R5">
-        <v>-97.34128013115213</v>
+        <v>-95.90908611832077</v>
       </c>
       <c r="S5">
-        <v>177.0596772721811</v>
+        <v>176.6192325029194</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.049988514396846</v>
+        <v>1.066026037518946</v>
       </c>
       <c r="O6">
-        <v>0.1029025708480234</v>
+        <v>0.1208046833029699</v>
       </c>
       <c r="P6">
-        <v>1.034420449742391</v>
+        <v>1.0509612524662</v>
       </c>
       <c r="Q6">
-        <v>1.964667669339894</v>
+        <v>2.437110577640094</v>
       </c>
       <c r="R6">
-        <v>-99.52373313644298</v>
+        <v>-97.96082683471923</v>
       </c>
       <c r="S6">
-        <v>176.3702790196854</v>
+        <v>175.9454160110474</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1434,22 +1434,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.0666294801585</v>
+        <v>1.082683435741093</v>
       </c>
       <c r="O7">
-        <v>0.1193917309084708</v>
+        <v>0.137203427869783</v>
       </c>
       <c r="P7">
-        <v>1.045882124927338</v>
+        <v>1.06251178225574</v>
       </c>
       <c r="Q7">
-        <v>2.077277328655846</v>
+        <v>2.540786155803675</v>
       </c>
       <c r="R7">
-        <v>-101.10514768795</v>
+        <v>-99.52373947230986</v>
       </c>
       <c r="S7">
-        <v>175.695894957811</v>
+        <v>175.2861600721237</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.083274442628095</v>
+        <v>1.099344274553524</v>
       </c>
       <c r="O8">
-        <v>0.1359497470277661</v>
+        <v>0.1536824376026933</v>
       </c>
       <c r="P8">
-        <v>1.057485539708087</v>
+        <v>1.074199942193666</v>
       </c>
       <c r="Q8">
-        <v>2.186426763287015</v>
+        <v>2.641319554130357</v>
       </c>
       <c r="R8">
-        <v>-102.3020835918246</v>
+        <v>-100.752237329537</v>
       </c>
       <c r="S8">
-        <v>175.0362208053125</v>
+        <v>174.6411668355119</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1552,22 +1552,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.066629477838377</v>
+        <v>1.082683433428891</v>
       </c>
       <c r="O9">
-        <v>0.1193917320145244</v>
+        <v>0.1372034290735225</v>
       </c>
       <c r="P9">
-        <v>1.04588212678203</v>
+        <v>1.062511784053827</v>
       </c>
       <c r="Q9">
-        <v>2.077277364743132</v>
+        <v>2.540786187894028</v>
       </c>
       <c r="R9">
-        <v>-101.1051455778265</v>
+        <v>-99.52373768316639</v>
       </c>
       <c r="S9">
-        <v>175.6958948915681</v>
+        <v>175.2861600047613</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1611,22 +1611,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.066629476291628</v>
+        <v>1.082683431887422</v>
       </c>
       <c r="O10">
-        <v>0.1193917327518935</v>
+        <v>0.1372034298760154</v>
       </c>
       <c r="P10">
-        <v>1.045882128018492</v>
+        <v>1.062511785252551</v>
       </c>
       <c r="Q10">
-        <v>2.077277388801317</v>
+        <v>2.540786209287595</v>
       </c>
       <c r="R10">
-        <v>-101.1051441710775</v>
+        <v>-99.52373649040408</v>
       </c>
       <c r="S10">
-        <v>175.6958948474062</v>
+        <v>175.2861599598531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1670,22 +1670,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.066629475518253</v>
+        <v>1.082683431116688</v>
       </c>
       <c r="O11">
-        <v>0.119391733120578</v>
+        <v>0.1372034302772619</v>
       </c>
       <c r="P11">
-        <v>1.045882128636723</v>
+        <v>1.062511785851913</v>
       </c>
       <c r="Q11">
-        <v>2.077277400830408</v>
+        <v>2.540786219984374</v>
       </c>
       <c r="R11">
-        <v>-101.1051434677031</v>
+        <v>-99.52373589402292</v>
       </c>
       <c r="S11">
-        <v>175.6958948253253</v>
+        <v>175.286159937399</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1729,22 +1729,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.016719354324711</v>
+        <v>1.03272222515895</v>
       </c>
       <c r="O12">
-        <v>0.07032462489676089</v>
+        <v>0.0884265770113816</v>
       </c>
       <c r="P12">
-        <v>1.011941526161689</v>
+        <v>1.028291582264346</v>
       </c>
       <c r="Q12">
-        <v>1.728391823247595</v>
+        <v>2.219727628216841</v>
       </c>
       <c r="R12">
-        <v>-94.14692888377343</v>
+        <v>-93.10557018484857</v>
       </c>
       <c r="S12">
-        <v>177.7643904667824</v>
+        <v>177.3079047536246</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1788,22 +1788,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.00009157446032</v>
+        <v>1.049372250655056</v>
       </c>
       <c r="O13">
-        <v>0.05447581137541007</v>
+        <v>0.1045239845825111</v>
       </c>
       <c r="P13">
-        <v>1.000934267616379</v>
+        <v>1.039552934475966</v>
       </c>
       <c r="Q13">
-        <v>1.604360138727323</v>
+        <v>2.330143722989642</v>
       </c>
       <c r="R13">
-        <v>-89.0694405226252</v>
+        <v>-95.90909591350285</v>
       </c>
       <c r="S13">
-        <v>178.4847138481228</v>
+        <v>176.6192327462307</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1847,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.016719351961853</v>
+        <v>1.03272222280725</v>
       </c>
       <c r="O14">
-        <v>0.0703246266135218</v>
+        <v>0.08842657877787855</v>
       </c>
       <c r="P14">
-        <v>1.011941528196459</v>
+        <v>1.028291584240588</v>
       </c>
       <c r="Q14">
-        <v>1.728391877061569</v>
+        <v>2.219727677650587</v>
       </c>
       <c r="R14">
-        <v>-94.1469252030054</v>
+        <v>-93.10556732839829</v>
       </c>
       <c r="S14">
-        <v>177.7643904057929</v>
+        <v>177.3079046916713</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1906,22 +1906,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.016719350342869</v>
+        <v>1.032722221195524</v>
       </c>
       <c r="O15">
-        <v>0.07032462770943505</v>
+        <v>0.08842657990692999</v>
       </c>
       <c r="P15">
-        <v>1.01194152951095</v>
+        <v>1.028291585515868</v>
       </c>
       <c r="Q15">
-        <v>1.728391911743032</v>
+        <v>2.219727709451202</v>
       </c>
       <c r="R15">
-        <v>-94.14692275035631</v>
+        <v>-93.10556542447698</v>
       </c>
       <c r="S15">
-        <v>177.7643903665173</v>
+        <v>177.3079046517124</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.016719355074065</v>
+        <v>1.03272222590481</v>
       </c>
       <c r="O16">
-        <v>0.0703246243002149</v>
+        <v>0.0884265763989768</v>
       </c>
       <c r="P16">
-        <v>1.011941525483637</v>
+        <v>1.028291581605435</v>
       </c>
       <c r="Q16">
-        <v>1.72839180677618</v>
+        <v>2.219727613200935</v>
       </c>
       <c r="R16">
-        <v>-94.14693007860504</v>
+        <v>-93.10557111119513</v>
       </c>
       <c r="S16">
-        <v>177.7643904897327</v>
+        <v>177.3079047768545</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2024,22 +2024,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.000091575201902</v>
+        <v>1.03272222589337</v>
       </c>
       <c r="O17">
-        <v>0.05447581063214837</v>
+        <v>0.08842657638799231</v>
       </c>
       <c r="P17">
-        <v>1.000934266918472</v>
+        <v>1.028291581597746</v>
       </c>
       <c r="Q17">
-        <v>1.604360120678668</v>
+        <v>2.219727613123851</v>
       </c>
       <c r="R17">
-        <v>-89.06944202151152</v>
+        <v>-93.10557110892017</v>
       </c>
       <c r="S17">
-        <v>178.4847138714522</v>
+        <v>177.3079047773334</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.03335173919057</v>
+        <v>1.049372244487309</v>
       </c>
       <c r="O18">
-        <v>0.08652164303875126</v>
+        <v>0.1045239887858074</v>
       </c>
       <c r="P18">
-        <v>1.023105277114296</v>
+        <v>1.039552939798226</v>
       </c>
       <c r="Q18">
-        <v>1.848431475693002</v>
+        <v>2.330143850644684</v>
       </c>
       <c r="R18">
-        <v>-97.34128419285412</v>
+        <v>-95.90908939641625</v>
       </c>
       <c r="S18">
-        <v>177.0596773480584</v>
+        <v>176.619232580276</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2142,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.049988519246141</v>
+        <v>1.066026042347563</v>
       </c>
       <c r="O19">
-        <v>0.1029025684210156</v>
+        <v>0.1208046806740766</v>
       </c>
       <c r="P19">
-        <v>1.034420445749453</v>
+        <v>1.050961248590286</v>
       </c>
       <c r="Q19">
-        <v>1.96466756750016</v>
+        <v>2.437110484233391</v>
       </c>
       <c r="R19">
-        <v>-99.52373831434819</v>
+        <v>-97.96083113658267</v>
       </c>
       <c r="S19">
-        <v>176.3702791296032</v>
+        <v>175.9454161233455</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2201,22 +2201,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.049988516950372</v>
+        <v>1.066026040060537</v>
       </c>
       <c r="O20">
-        <v>0.1029025696955014</v>
+        <v>0.1208046820433767</v>
       </c>
       <c r="P20">
-        <v>1.034420447664053</v>
+        <v>1.050961250447987</v>
       </c>
       <c r="Q20">
-        <v>1.96466760789174</v>
+        <v>2.43711052051011</v>
       </c>
       <c r="R20">
-        <v>-99.52373585004192</v>
+        <v>-97.9608290925752</v>
       </c>
       <c r="S20">
-        <v>176.3702790626178</v>
+        <v>175.9454160553265</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2260,22 +2260,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.049988516185116</v>
+        <v>1.066026039298196</v>
       </c>
       <c r="O21">
-        <v>0.1029025701203298</v>
+        <v>0.1208046824998099</v>
       </c>
       <c r="P21">
-        <v>1.034420448302254</v>
+        <v>1.05096125106722</v>
       </c>
       <c r="Q21">
-        <v>1.964667621355593</v>
+        <v>2.437110532602336</v>
       </c>
       <c r="R21">
-        <v>-99.52373502860648</v>
+        <v>-97.96082841123935</v>
       </c>
       <c r="S21">
-        <v>176.3702790402893</v>
+        <v>175.9454160326534</v>
       </c>
     </row>
   </sheetData>
@@ -2358,55 +2358,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.519321952484996</v>
+        <v>1.519504205418704</v>
       </c>
       <c r="D2">
-        <v>1.519321952484996</v>
+        <v>1.519504205418704</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.771809382529204</v>
+        <v>8.77286162033257</v>
       </c>
       <c r="G2">
-        <v>8.771809382529204</v>
+        <v>8.77286162033257</v>
       </c>
       <c r="H2">
-        <v>0.0109422858176125</v>
+        <v>0.01094228581761251</v>
       </c>
       <c r="I2">
         <v>0.1094383951790285</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714032</v>
+        <v>0.01094540889714031</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843078</v>
+        <v>0.01094540908575296</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.1094540867823191</v>
       </c>
       <c r="N2">
-        <v>1.102900100906597</v>
+        <v>1.103032401210624</v>
       </c>
       <c r="O2">
-        <v>1.074322855407096</v>
+        <v>1.074451727692408</v>
       </c>
       <c r="P2">
-        <v>1.084897819838923</v>
+        <v>1.08502796066931</v>
       </c>
       <c r="Q2">
-        <v>29.14059841650034</v>
+        <v>29.14059841628701</v>
       </c>
       <c r="R2">
-        <v>-91.10214746333658</v>
+        <v>-91.1021474626761</v>
       </c>
       <c r="S2">
-        <v>150.3279625892402</v>
+        <v>150.3279625887644</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.154875371033126</v>
+        <v>1.172333238997449</v>
       </c>
       <c r="O3">
-        <v>1.126291151989859</v>
+        <v>1.14374342027981</v>
       </c>
       <c r="P3">
-        <v>1.136894583181717</v>
+        <v>1.154357033416152</v>
       </c>
       <c r="Q3">
-        <v>29.22117302928964</v>
+        <v>29.24643141747663</v>
       </c>
       <c r="R3">
-        <v>-91.00832649955665</v>
+        <v>-90.97896162455244</v>
       </c>
       <c r="S3">
-        <v>150.3555163729367</v>
+        <v>150.3641452035838</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2509,22 +2509,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.202254005804264</v>
+        <v>1.21970277606617</v>
       </c>
       <c r="O4">
-        <v>1.173738832285615</v>
+        <v>1.191180868115415</v>
       </c>
       <c r="P4">
-        <v>1.183937961064367</v>
+        <v>1.201395742769896</v>
       </c>
       <c r="Q4">
-        <v>28.39811176755281</v>
+        <v>28.43416684248967</v>
       </c>
       <c r="R4">
-        <v>-91.84213730520034</v>
+        <v>-91.80172903950979</v>
       </c>
       <c r="S4">
-        <v>149.4746074356051</v>
+        <v>149.495701033782</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2568,22 +2568,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.18643429534443</v>
+        <v>1.203886407553658</v>
       </c>
       <c r="O5">
-        <v>1.157896073588307</v>
+        <v>1.175341827182127</v>
       </c>
       <c r="P5">
-        <v>1.168226574007389</v>
+        <v>1.185686316297677</v>
       </c>
       <c r="Q5">
-        <v>28.66515954892956</v>
+        <v>28.69781747071573</v>
       </c>
       <c r="R5">
-        <v>-91.57179522622722</v>
+        <v>-91.53485465099729</v>
       </c>
       <c r="S5">
-        <v>149.7603583137583</v>
+        <v>149.7775238291214</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2627,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.202254005519447</v>
+        <v>1.219702775759579</v>
       </c>
       <c r="O6">
-        <v>1.173738832025206</v>
+        <v>1.191180867833513</v>
       </c>
       <c r="P6">
-        <v>1.183937960870741</v>
+        <v>1.201395742553555</v>
       </c>
       <c r="Q6">
-        <v>28.39811177804635</v>
+        <v>28.43416685053854</v>
       </c>
       <c r="R6">
-        <v>-91.84213729034551</v>
+        <v>-91.80172902722556</v>
       </c>
       <c r="S6">
-        <v>149.4746074474243</v>
+        <v>149.4957010431148</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2686,22 +2686,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.218099154434601</v>
+        <v>1.235544309103245</v>
       </c>
       <c r="O7">
-        <v>1.18960702507039</v>
+        <v>1.207045073230605</v>
       </c>
       <c r="P7">
-        <v>1.199678024260026</v>
+        <v>1.217133484689818</v>
       </c>
       <c r="Q7">
-        <v>28.1380060494004</v>
+        <v>28.17727170668196</v>
       </c>
       <c r="R7">
-        <v>-92.10527288253043</v>
+        <v>-92.06159384858057</v>
       </c>
       <c r="S7">
-        <v>149.1963480553064</v>
+        <v>149.2211597961158</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2745,22 +2745,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.233968762540208</v>
+        <v>1.251410052336612</v>
       </c>
       <c r="O8">
-        <v>1.205499648697158</v>
+        <v>1.222933464448323</v>
       </c>
       <c r="P8">
-        <v>1.215445650377255</v>
+        <v>1.232898458685858</v>
       </c>
       <c r="Q8">
-        <v>27.8845854788439</v>
+        <v>27.92688564852888</v>
       </c>
       <c r="R8">
-        <v>-92.36147568143467</v>
+        <v>-92.31471139773794</v>
       </c>
       <c r="S8">
-        <v>148.9253019892743</v>
+        <v>148.9536336387823</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2804,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.21809915404239</v>
+        <v>1.235544308678212</v>
       </c>
       <c r="O9">
-        <v>1.189607024717356</v>
+        <v>1.207045072845125</v>
       </c>
       <c r="P9">
-        <v>1.199678023990574</v>
+        <v>1.217133484386343</v>
       </c>
       <c r="Q9">
-        <v>28.1380060298406</v>
+        <v>28.17727168399385</v>
       </c>
       <c r="R9">
-        <v>-92.10527289646646</v>
+        <v>-92.06159386580579</v>
       </c>
       <c r="S9">
-        <v>149.1963480371675</v>
+        <v>149.2211597748026</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2863,22 +2863,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.218099153780917</v>
+        <v>1.235544308394857</v>
       </c>
       <c r="O10">
-        <v>1.189607024482</v>
+        <v>1.207045072588138</v>
       </c>
       <c r="P10">
-        <v>1.199678023810939</v>
+        <v>1.217133484184026</v>
       </c>
       <c r="Q10">
-        <v>28.13800601680074</v>
+        <v>28.17727166886845</v>
       </c>
       <c r="R10">
-        <v>-92.10527290575713</v>
+        <v>-92.06159387728928</v>
       </c>
       <c r="S10">
-        <v>149.196348025075</v>
+        <v>149.2211597605938</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.21809915365018</v>
+        <v>1.235544308253179</v>
       </c>
       <c r="O11">
-        <v>1.189607024364322</v>
+        <v>1.207045072459645</v>
       </c>
       <c r="P11">
-        <v>1.199678023721122</v>
+        <v>1.217133484082868</v>
       </c>
       <c r="Q11">
-        <v>28.1380060102808</v>
+        <v>28.17727166130575</v>
       </c>
       <c r="R11">
-        <v>-92.10527291040249</v>
+        <v>-92.06159388303102</v>
       </c>
       <c r="S11">
-        <v>149.1963480190287</v>
+        <v>149.2211597534894</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2981,22 +2981,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.170641055746882</v>
+        <v>1.188096210085418</v>
       </c>
       <c r="O12">
-        <v>1.142079808690178</v>
+        <v>1.159528983030261</v>
       </c>
       <c r="P12">
-        <v>1.15254503672627</v>
+        <v>1.170006346863314</v>
       </c>
       <c r="Q12">
-        <v>28.93941896638067</v>
+        <v>28.96848198277945</v>
       </c>
       <c r="R12">
-        <v>-91.29395908376958</v>
+        <v>-91.26069528852793</v>
       </c>
       <c r="S12">
-        <v>150.053892517607</v>
+        <v>150.0669075517377</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3040,22 +3040,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.154875370858059</v>
+        <v>1.203886408901072</v>
       </c>
       <c r="O13">
-        <v>1.126291151855432</v>
+        <v>1.175341828371139</v>
       </c>
       <c r="P13">
-        <v>1.136894583133733</v>
+        <v>1.185686317139092</v>
       </c>
       <c r="Q13">
-        <v>29.22117301956856</v>
+        <v>28.69781751347547</v>
       </c>
       <c r="R13">
-        <v>-91.00832650307839</v>
+        <v>-91.53485463185048</v>
       </c>
       <c r="S13">
-        <v>150.355516364553</v>
+        <v>149.7775238660056</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3099,22 +3099,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.170641055450408</v>
+        <v>1.188096209755326</v>
       </c>
       <c r="O14">
-        <v>1.142079808433446</v>
+        <v>1.159528982740275</v>
       </c>
       <c r="P14">
-        <v>1.152545036558145</v>
+        <v>1.170006346660234</v>
       </c>
       <c r="Q14">
-        <v>28.93941896010361</v>
+        <v>28.96848197307046</v>
       </c>
       <c r="R14">
-        <v>-91.29395908386228</v>
+        <v>-91.26069529223612</v>
       </c>
       <c r="S14">
-        <v>150.0538925128501</v>
+        <v>150.0669075435</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.170641055204159</v>
+        <v>1.188096209486667</v>
       </c>
       <c r="O15">
-        <v>1.142079808213688</v>
+        <v>1.159528982498347</v>
       </c>
       <c r="P15">
-        <v>1.152545036397493</v>
+        <v>1.170006346476279</v>
       </c>
       <c r="Q15">
-        <v>28.93941895597532</v>
+        <v>28.96848196665458</v>
       </c>
       <c r="R15">
-        <v>-91.29395908387617</v>
+        <v>-91.26069529465967</v>
       </c>
       <c r="S15">
-        <v>150.0538925097832</v>
+        <v>150.0669075381115</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3217,22 +3217,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.170641055823573</v>
+        <v>1.188096210173335</v>
       </c>
       <c r="O16">
-        <v>1.142079808753455</v>
+        <v>1.159528983104648</v>
       </c>
       <c r="P16">
-        <v>1.152545036760972</v>
+        <v>1.170006346909678</v>
       </c>
       <c r="Q16">
-        <v>28.93941897046224</v>
+        <v>28.96848198797632</v>
       </c>
       <c r="R16">
-        <v>-91.29395908170427</v>
+        <v>-91.26069528528744</v>
       </c>
       <c r="S16">
-        <v>150.0538925212341</v>
+        <v>150.0669075564949</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3276,22 +3276,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.154875370916415</v>
+        <v>1.188096210162489</v>
       </c>
       <c r="O17">
-        <v>1.126291151900241</v>
+        <v>1.159528983093785</v>
       </c>
       <c r="P17">
-        <v>1.136894583149727</v>
+        <v>1.170006346898908</v>
       </c>
       <c r="Q17">
-        <v>29.22117302280892</v>
+        <v>28.96848198816489</v>
       </c>
       <c r="R17">
-        <v>-91.00832650190448</v>
+        <v>-91.26069528509639</v>
       </c>
       <c r="S17">
-        <v>150.3555163673475</v>
+        <v>150.0669075566965</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -3335,22 +3335,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.186434295836114</v>
+        <v>1.203886408089714</v>
       </c>
       <c r="O18">
-        <v>1.157896074027816</v>
+        <v>1.175341827665508</v>
       </c>
       <c r="P18">
-        <v>1.168226574328056</v>
+        <v>1.185686316664471</v>
       </c>
       <c r="Q18">
-        <v>28.66515955718998</v>
+        <v>28.69781748349985</v>
       </c>
       <c r="R18">
-        <v>-91.57179522609434</v>
+        <v>-91.53485464610257</v>
       </c>
       <c r="S18">
-        <v>149.7603583198905</v>
+        <v>149.7775238398456</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3394,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.20225400625577</v>
+        <v>1.219702776561801</v>
       </c>
       <c r="O19">
-        <v>1.173738832684442</v>
+        <v>1.191180868557875</v>
       </c>
       <c r="P19">
-        <v>1.1839379613508</v>
+        <v>1.201395743102101</v>
       </c>
       <c r="Q19">
-        <v>28.39811179043762</v>
+        <v>28.43416686963967</v>
       </c>
       <c r="R19">
-        <v>-91.84213728999703</v>
+        <v>-91.80172901981877</v>
       </c>
       <c r="S19">
-        <v>149.4746074566166</v>
+        <v>149.4957010591196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3453,22 +3453,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.202254005917141</v>
+        <v>1.219702776190077</v>
       </c>
       <c r="O20">
-        <v>1.173738832385322</v>
+        <v>1.19118086822603</v>
       </c>
       <c r="P20">
-        <v>1.183937961135975</v>
+        <v>1.201395742852947</v>
       </c>
       <c r="Q20">
-        <v>28.39811177327401</v>
+        <v>28.43416684927717</v>
       </c>
       <c r="R20">
-        <v>-91.8421373013995</v>
+        <v>-91.80172903458703</v>
       </c>
       <c r="S20">
-        <v>149.474607440858</v>
+        <v>149.4957010401164</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -3512,22 +3512,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.202254005804264</v>
+        <v>1.21970277606617</v>
       </c>
       <c r="O21">
-        <v>1.173738832285615</v>
+        <v>1.191180868115415</v>
       </c>
       <c r="P21">
-        <v>1.183937961064367</v>
+        <v>1.201395742769896</v>
       </c>
       <c r="Q21">
-        <v>28.39811176755281</v>
+        <v>28.43416684248967</v>
       </c>
       <c r="R21">
-        <v>-91.84213730520034</v>
+        <v>-91.80172903950979</v>
       </c>
       <c r="S21">
-        <v>149.4746074356051</v>
+        <v>149.495701033782</v>
       </c>
     </row>
   </sheetData>
@@ -3610,19 +3610,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.51932195248493</v>
+        <v>1.519504205418616</v>
       </c>
       <c r="D2">
-        <v>1.51932195248493</v>
+        <v>1.519504205418616</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.771809382528824</v>
+        <v>8.772861620332066</v>
       </c>
       <c r="G2">
-        <v>8.771809382528824</v>
+        <v>8.772861620332066</v>
       </c>
       <c r="H2">
         <v>0.01094228914518902</v>
@@ -3631,34 +3631,34 @@
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.0109454088971403</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843073</v>
+        <v>0.0109454090857529</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.109454086782319</v>
       </c>
       <c r="N2">
-        <v>1.10290010090655</v>
+        <v>1.10303240121056</v>
       </c>
       <c r="O2">
-        <v>1.07432285540705</v>
+        <v>1.074451727692347</v>
       </c>
       <c r="P2">
-        <v>1.084897819838876</v>
+        <v>1.085027960669247</v>
       </c>
       <c r="Q2">
-        <v>29.14059841650034</v>
+        <v>29.14059841628701</v>
       </c>
       <c r="R2">
-        <v>-91.10214746333658</v>
+        <v>-91.1021474626761</v>
       </c>
       <c r="S2">
-        <v>150.3279625892402</v>
+        <v>150.3279625887644</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3702,22 +3702,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.157350438178668</v>
+        <v>1.175633372492428</v>
       </c>
       <c r="O3">
-        <v>1.128765904468124</v>
+        <v>1.147043148208107</v>
       </c>
       <c r="P3">
-        <v>1.139370625769524</v>
+        <v>1.15765842858627</v>
       </c>
       <c r="Q3">
-        <v>29.22482939884758</v>
+        <v>29.25115985803279</v>
       </c>
       <c r="R3">
-        <v>-91.00407432256836</v>
+        <v>-90.9734668698874</v>
       </c>
       <c r="S3">
-        <v>150.3567657276224</v>
+        <v>150.3657600867821</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3761,22 +3761,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.204727759255535</v>
+        <v>1.223001206978152</v>
       </c>
       <c r="O4">
-        <v>1.176212106646851</v>
+        <v>1.194478681317157</v>
       </c>
       <c r="P4">
-        <v>1.186413330440398</v>
+        <v>1.204696266534563</v>
       </c>
       <c r="Q4">
-        <v>28.40331487195106</v>
+        <v>28.44090341905584</v>
       </c>
       <c r="R4">
-        <v>-91.83630280972194</v>
+        <v>-91.79418023948615</v>
       </c>
       <c r="S4">
-        <v>149.4776454929958</v>
+        <v>149.499632509802</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3820,22 +3820,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.188908530895587</v>
+        <v>1.20718546362316</v>
       </c>
       <c r="O5">
-        <v>1.160369884493619</v>
+        <v>1.178640335819799</v>
       </c>
       <c r="P5">
-        <v>1.170702225762463</v>
+        <v>1.188987205751154</v>
       </c>
       <c r="Q5">
-        <v>28.6698761851676</v>
+        <v>28.70392185644633</v>
       </c>
       <c r="R5">
-        <v>-91.56645735818935</v>
+        <v>-91.52795119923012</v>
       </c>
       <c r="S5">
-        <v>149.7628329062141</v>
+        <v>149.7807248885172</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3879,22 +3879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.204727758967636</v>
+        <v>1.22300120666744</v>
       </c>
       <c r="O6">
-        <v>1.176212106383401</v>
+        <v>1.194478681031186</v>
       </c>
       <c r="P6">
-        <v>1.186413330243555</v>
+        <v>1.204696266313923</v>
       </c>
       <c r="Q6">
-        <v>28.4033148820936</v>
+        <v>28.44090342665052</v>
       </c>
       <c r="R6">
-        <v>-91.83630279523636</v>
+        <v>-91.79418022767943</v>
       </c>
       <c r="S6">
-        <v>149.4776455044581</v>
+        <v>149.4996325186728</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3938,22 +3938,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.220572386731275</v>
+        <v>1.238842063824667</v>
       </c>
       <c r="O7">
-        <v>1.192079724385193</v>
+        <v>1.21034214063999</v>
       </c>
       <c r="P7">
-        <v>1.20215305959185</v>
+        <v>1.220433575605081</v>
       </c>
       <c r="Q7">
-        <v>28.14366871521963</v>
+        <v>28.18460605866609</v>
       </c>
       <c r="R7">
-        <v>-92.09897017124077</v>
+        <v>-92.05343601697662</v>
       </c>
       <c r="S7">
-        <v>149.1999192650885</v>
+        <v>149.2257829934006</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3997,22 +3997,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.236441438134541</v>
+        <v>1.254707084337531</v>
       </c>
       <c r="O8">
-        <v>1.20797173808569</v>
+        <v>1.226229740359752</v>
       </c>
       <c r="P8">
-        <v>1.217920304304242</v>
+        <v>1.236198055099041</v>
       </c>
       <c r="Q8">
-        <v>27.89068232353598</v>
+        <v>27.93478528087432</v>
       </c>
       <c r="R8">
-        <v>-92.35473150969572</v>
+        <v>-92.30597876672071</v>
       </c>
       <c r="S8">
-        <v>148.9293777397677</v>
+        <v>148.9589120009873</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4056,22 +4056,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.220572386334419</v>
+        <v>1.238842063393422</v>
       </c>
       <c r="O9">
-        <v>1.192079724027568</v>
+        <v>1.210342140248367</v>
       </c>
       <c r="P9">
-        <v>1.202153059317578</v>
+        <v>1.220433575295168</v>
       </c>
       <c r="Q9">
-        <v>28.14366869521072</v>
+        <v>28.18460603539667</v>
       </c>
       <c r="R9">
-        <v>-92.09897018564924</v>
+        <v>-92.05343603481293</v>
       </c>
       <c r="S9">
-        <v>149.1999192464938</v>
+        <v>149.2257829714976</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4115,22 +4115,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.220572386069849</v>
+        <v>1.238842063105925</v>
       </c>
       <c r="O10">
-        <v>1.192079723789151</v>
+        <v>1.210342139987285</v>
       </c>
       <c r="P10">
-        <v>1.202153059134731</v>
+        <v>1.22043357508856</v>
       </c>
       <c r="Q10">
-        <v>28.14366868187145</v>
+        <v>28.18460601988372</v>
       </c>
       <c r="R10">
-        <v>-92.09897019525488</v>
+        <v>-92.05343604670381</v>
       </c>
       <c r="S10">
-        <v>149.1999192340974</v>
+        <v>149.2257829568956</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4174,22 +4174,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.220572385937563</v>
+        <v>1.238842062962176</v>
       </c>
       <c r="O11">
-        <v>1.192079723669942</v>
+        <v>1.210342139856744</v>
       </c>
       <c r="P11">
-        <v>1.202153059043307</v>
+        <v>1.220433574985256</v>
       </c>
       <c r="Q11">
-        <v>28.14366867520181</v>
+        <v>28.18460601212724</v>
       </c>
       <c r="R11">
-        <v>-92.09897020005771</v>
+        <v>-92.05343605264925</v>
       </c>
       <c r="S11">
-        <v>149.1999192278992</v>
+        <v>149.2257829495946</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4233,22 +4233,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.173115730573782</v>
+        <v>1.191395835447215</v>
       </c>
       <c r="O12">
-        <v>1.14455411373165</v>
+        <v>1.162828131741836</v>
       </c>
       <c r="P12">
-        <v>1.155020914570152</v>
+        <v>1.173307528936107</v>
       </c>
       <c r="Q12">
-        <v>28.9436206040087</v>
+        <v>28.97391771870265</v>
       </c>
       <c r="R12">
-        <v>-91.28914802282577</v>
+        <v>-91.25447572433747</v>
       </c>
       <c r="S12">
-        <v>150.0557715216621</v>
+        <v>150.0693372241203</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4292,22 +4292,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.157350437998788</v>
+        <v>1.207185464995771</v>
       </c>
       <c r="O13">
-        <v>1.128765904328933</v>
+        <v>1.178640337033734</v>
       </c>
       <c r="P13">
-        <v>1.139370625716532</v>
+        <v>1.188987206618751</v>
       </c>
       <c r="Q13">
-        <v>29.22482938863488</v>
+        <v>28.70392190171621</v>
       </c>
       <c r="R13">
-        <v>-91.00407432660882</v>
+        <v>-91.52795117744132</v>
       </c>
       <c r="S13">
-        <v>150.3567657187408</v>
+        <v>149.7807249279476</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4351,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.173115730272549</v>
+        <v>1.191395835110764</v>
       </c>
       <c r="O14">
-        <v>1.144554113470211</v>
+        <v>1.162828131445556</v>
       </c>
       <c r="P14">
-        <v>1.155020914397073</v>
+        <v>1.173307528726415</v>
       </c>
       <c r="Q14">
-        <v>28.94362059723873</v>
+        <v>28.9739177083563</v>
       </c>
       <c r="R14">
-        <v>-91.28914802343802</v>
+        <v>-91.25447572871693</v>
       </c>
       <c r="S14">
-        <v>150.0557715164052</v>
+        <v>150.0693372152362</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4410,22 +4410,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.173115730023127</v>
+        <v>1.191395834837864</v>
       </c>
       <c r="O15">
-        <v>1.144554113247314</v>
+        <v>1.162828131199433</v>
       </c>
       <c r="P15">
-        <v>1.155020914233119</v>
+        <v>1.173307528538053</v>
       </c>
       <c r="Q15">
-        <v>28.94362059278189</v>
+        <v>28.97391770151558</v>
       </c>
       <c r="R15">
-        <v>-91.28914802379818</v>
+        <v>-91.25447573158789</v>
       </c>
       <c r="S15">
-        <v>150.0557715130048</v>
+        <v>150.0693372094166</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4469,22 +4469,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.173115730652063</v>
+        <v>1.191395835537256</v>
       </c>
       <c r="O16">
-        <v>1.1445541137965</v>
+        <v>1.162828131818325</v>
       </c>
       <c r="P16">
-        <v>1.155020914606506</v>
+        <v>1.173307528984676</v>
       </c>
       <c r="Q16">
-        <v>28.94362060825046</v>
+        <v>28.97391772410663</v>
       </c>
       <c r="R16">
-        <v>-91.28914802059158</v>
+        <v>-91.2544757208788</v>
       </c>
       <c r="S16">
-        <v>150.0557715254515</v>
+        <v>150.0693372290873</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4528,22 +4528,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.157350438058748</v>
+        <v>1.19139583552641</v>
       </c>
       <c r="O17">
-        <v>1.12876590437533</v>
+        <v>1.162828131807463</v>
       </c>
       <c r="P17">
-        <v>1.139370625734196</v>
+        <v>1.173307528973906</v>
       </c>
       <c r="Q17">
-        <v>29.22482939203912</v>
+        <v>28.97391772429472</v>
       </c>
       <c r="R17">
-        <v>-91.00407432526198</v>
+        <v>-91.25447572068823</v>
       </c>
       <c r="S17">
-        <v>150.3567657217013</v>
+        <v>150.0693372292884</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4587,22 +4587,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.188908531393553</v>
+        <v>1.207185464167612</v>
       </c>
       <c r="O18">
-        <v>1.160369884939338</v>
+        <v>1.178640336311484</v>
       </c>
       <c r="P18">
-        <v>1.170702226089666</v>
+        <v>1.188987206126674</v>
       </c>
       <c r="Q18">
-        <v>28.66987619407764</v>
+        <v>28.70392187007073</v>
       </c>
       <c r="R18">
-        <v>-91.5664573573723</v>
+        <v>-91.52795119345109</v>
       </c>
       <c r="S18">
-        <v>149.7628329130058</v>
+        <v>149.7807249000942</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4646,22 +4646,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.204727759713287</v>
+        <v>1.223001207482134</v>
       </c>
       <c r="O19">
-        <v>1.176212107051855</v>
+        <v>1.194478681767877</v>
       </c>
       <c r="P19">
-        <v>1.186413330733316</v>
+        <v>1.204696266875427</v>
       </c>
       <c r="Q19">
-        <v>28.40331489544828</v>
+        <v>28.44090344699826</v>
       </c>
       <c r="R19">
-        <v>-91.83630279387393</v>
+        <v>-91.79418021896157</v>
       </c>
       <c r="S19">
-        <v>149.4776455146286</v>
+        <v>149.4996325359432</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4705,22 +4705,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.204727759369973</v>
+        <v>1.223001207104148</v>
       </c>
       <c r="O20">
-        <v>1.176212106748102</v>
+        <v>1.194478681429836</v>
       </c>
       <c r="P20">
-        <v>1.186413330513628</v>
+        <v>1.204696266619779</v>
       </c>
       <c r="Q20">
-        <v>28.40331487782537</v>
+        <v>28.44090342604144</v>
       </c>
       <c r="R20">
-        <v>-91.83630280575994</v>
+        <v>-91.79418023435501</v>
       </c>
       <c r="S20">
-        <v>149.477645498404</v>
+        <v>149.4996325163372</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4764,22 +4764,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.204727759255535</v>
+        <v>1.223001206978152</v>
       </c>
       <c r="O21">
-        <v>1.176212106646851</v>
+        <v>1.194478681317157</v>
       </c>
       <c r="P21">
-        <v>1.186413330440398</v>
+        <v>1.204696266534563</v>
       </c>
       <c r="Q21">
-        <v>28.40331487195106</v>
+        <v>28.44090341905584</v>
       </c>
       <c r="R21">
-        <v>-91.83630280972194</v>
+        <v>-91.79418023948615</v>
       </c>
       <c r="S21">
-        <v>149.4776454929958</v>
+        <v>149.499632509802</v>
       </c>
     </row>
   </sheetData>
@@ -9867,7 +9867,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.7586020785828</v>
+        <v>57.76553062460035</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.4694445808626</v>
+        <v>333.5094465599458</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9897,28 +9897,28 @@
         <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843165</v>
+        <v>0.01094540908575383</v>
       </c>
       <c r="M2">
-        <v>0.1094540868535998</v>
+        <v>0.1094540867823169</v>
       </c>
       <c r="N2">
-        <v>0.6353011894868948</v>
+        <v>0.635377398182019</v>
       </c>
       <c r="O2">
-        <v>1.100396023024776</v>
+        <v>1.100528022739039</v>
       </c>
       <c r="P2">
-        <v>0.6352960325136298</v>
+        <v>0.6353722404094625</v>
       </c>
       <c r="Q2">
-        <v>60.0025288467675</v>
+        <v>60.00252883210593</v>
       </c>
       <c r="R2">
-        <v>-90.00000002821926</v>
+        <v>-90.00000003762688</v>
       </c>
       <c r="S2">
-        <v>119.9977395923097</v>
+        <v>119.9977395975619</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6812180524970309</v>
+        <v>0.6967897853435689</v>
       </c>
       <c r="O3">
-        <v>1.152388892961441</v>
+        <v>1.169851978696448</v>
       </c>
       <c r="P3">
-        <v>0.6804248765821752</v>
+        <v>0.6957571372494618</v>
       </c>
       <c r="Q3">
-        <v>57.87687417180398</v>
+        <v>57.23121582579775</v>
       </c>
       <c r="R3">
-        <v>-89.95802278720076</v>
+        <v>-89.94486587203619</v>
       </c>
       <c r="S3">
-        <v>122.2490931129</v>
+        <v>122.9339234342995</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10021,22 +10021,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7154032555363609</v>
+        <v>0.7313577735003065</v>
       </c>
       <c r="O4">
-        <v>1.199525379259351</v>
+        <v>1.216982576148661</v>
       </c>
       <c r="P4">
-        <v>0.7303973131069615</v>
+        <v>0.7457930970384845</v>
       </c>
       <c r="Q4">
-        <v>54.84686585225514</v>
+        <v>54.29688964176854</v>
       </c>
       <c r="R4">
-        <v>-90.81521091966444</v>
+        <v>-90.79026523809699</v>
       </c>
       <c r="S4">
-        <v>122.7230055286692</v>
+        <v>123.3521543230302</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10080,22 +10080,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7037930978895743</v>
+        <v>0.7196288148409599</v>
       </c>
       <c r="O5">
-        <v>1.183784177577931</v>
+        <v>1.201243708107534</v>
       </c>
       <c r="P5">
-        <v>0.7137345398214979</v>
+        <v>0.7291102290991819</v>
       </c>
       <c r="Q5">
-        <v>55.82406332275079</v>
+        <v>55.24358506728838</v>
       </c>
       <c r="R5">
-        <v>-90.53706868769898</v>
+        <v>-90.51583854542683</v>
       </c>
       <c r="S5">
-        <v>122.5724088441759</v>
+        <v>123.2191225471231</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10139,22 +10139,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.715403257348374</v>
+        <v>0.7313577752657957</v>
       </c>
       <c r="O6">
-        <v>1.199525379026589</v>
+        <v>1.216982575893422</v>
       </c>
       <c r="P6">
-        <v>0.7303973118079954</v>
+        <v>0.7457930957597733</v>
       </c>
       <c r="Q6">
-        <v>54.84686589874832</v>
+        <v>54.29688968590354</v>
       </c>
       <c r="R6">
-        <v>-90.81521090970099</v>
+        <v>-90.79026523056571</v>
       </c>
       <c r="S6">
-        <v>122.7230056669226</v>
+        <v>123.3521544554079</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10198,22 +10198,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7272148357824296</v>
+        <v>0.7432800686872592</v>
       </c>
       <c r="O7">
-        <v>1.215294116080623</v>
+        <v>1.232748649005306</v>
       </c>
       <c r="P7">
-        <v>0.7470649051818212</v>
+        <v>0.7624798075280272</v>
       </c>
       <c r="Q7">
-        <v>53.90114441571892</v>
+        <v>53.38032086347928</v>
       </c>
       <c r="R7">
-        <v>-91.08614144720615</v>
+        <v>-91.05767842700098</v>
       </c>
       <c r="S7">
-        <v>122.8668835322857</v>
+        <v>123.4793642235544</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10257,22 +10257,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7392181757307651</v>
+        <v>0.7553865386579508</v>
       </c>
       <c r="O8">
-        <v>1.231089330991452</v>
+        <v>1.248540897205775</v>
       </c>
       <c r="P8">
-        <v>0.7637370059055302</v>
+        <v>0.7791701189660256</v>
       </c>
       <c r="Q8">
-        <v>52.98589324704393</v>
+        <v>52.49291034512436</v>
       </c>
       <c r="R8">
-        <v>-91.35012550838819</v>
+        <v>-91.31833236608109</v>
       </c>
       <c r="S8">
-        <v>123.004480432435</v>
+        <v>123.601124556344</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10316,22 +10316,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.727214838195157</v>
+        <v>0.743280071037337</v>
       </c>
       <c r="O9">
-        <v>1.215294115756411</v>
+        <v>1.232748648647368</v>
       </c>
       <c r="P9">
-        <v>0.747064903590703</v>
+        <v>0.7624798059593454</v>
       </c>
       <c r="Q9">
-        <v>53.90114443379473</v>
+        <v>53.3803208787873</v>
       </c>
       <c r="R9">
-        <v>-91.08614146763897</v>
+        <v>-91.0576784505413</v>
       </c>
       <c r="S9">
-        <v>122.8668836849988</v>
+        <v>123.4793643684206</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -10375,22 +10375,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7272148398036417</v>
+        <v>0.7432800726040557</v>
       </c>
       <c r="O10">
-        <v>1.215294115540269</v>
+        <v>1.232748648408743</v>
       </c>
       <c r="P10">
-        <v>0.7470649025299574</v>
+        <v>0.7624798049135573</v>
       </c>
       <c r="Q10">
-        <v>53.90114444584527</v>
+        <v>53.38032088899268</v>
       </c>
       <c r="R10">
-        <v>-91.08614148126084</v>
+        <v>-91.05767846623486</v>
       </c>
       <c r="S10">
-        <v>122.8668837868075</v>
+        <v>123.479364464998</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7272148406078841</v>
+        <v>0.7432800733874148</v>
       </c>
       <c r="O11">
-        <v>1.215294115432198</v>
+        <v>1.232748648289431</v>
       </c>
       <c r="P11">
-        <v>0.7470649019995843</v>
+        <v>0.7624798043906628</v>
       </c>
       <c r="Q11">
-        <v>53.90114445187055</v>
+        <v>53.38032089409538</v>
       </c>
       <c r="R11">
-        <v>-91.08614148807177</v>
+        <v>-91.05767847408164</v>
       </c>
       <c r="S11">
-        <v>122.8668838377119</v>
+        <v>123.4793645132868</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -10493,22 +10493,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6923944853887287</v>
+        <v>0.7081027902978624</v>
       </c>
       <c r="O12">
-        <v>1.168071625366493</v>
+        <v>1.185533129623758</v>
       </c>
       <c r="P12">
-        <v>0.6970769377103238</v>
+        <v>0.712431480360026</v>
       </c>
       <c r="Q12">
-        <v>56.83373697900931</v>
+        <v>56.22137403371082</v>
       </c>
       <c r="R12">
-        <v>-90.25143659211582</v>
+        <v>-90.23413187424944</v>
       </c>
       <c r="S12">
-        <v>122.4146130856046</v>
+        <v>123.0798606809938</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -10552,22 +10552,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6812180552191027</v>
+        <v>0.7196288046222888</v>
       </c>
       <c r="O13">
-        <v>1.152388892856713</v>
+        <v>1.201243709173657</v>
       </c>
       <c r="P13">
-        <v>0.6804248750738079</v>
+        <v>0.7291102355231399</v>
       </c>
       <c r="Q13">
-        <v>57.87687418358863</v>
+        <v>55.24358496730209</v>
       </c>
       <c r="R13">
-        <v>-89.95802279802797</v>
+        <v>-90.51583849894905</v>
       </c>
       <c r="S13">
-        <v>122.2490933036464</v>
+        <v>123.2191218568697</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -10611,22 +10611,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6923944880317083</v>
+        <v>0.7081027928744001</v>
       </c>
       <c r="O14">
-        <v>1.168071625141494</v>
+        <v>1.185533129364155</v>
       </c>
       <c r="P14">
-        <v>0.6970769360684078</v>
+        <v>0.7124314787462696</v>
       </c>
       <c r="Q14">
-        <v>56.83373700445387</v>
+        <v>56.22137405685379</v>
       </c>
       <c r="R14">
-        <v>-90.25143659937665</v>
+        <v>-90.23413188491629</v>
       </c>
       <c r="S14">
-        <v>122.4146132727008</v>
+        <v>123.0798608591266</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10670,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.692394489751279</v>
+        <v>0.7081027945494244</v>
       </c>
       <c r="O15">
-        <v>1.168071624942919</v>
+        <v>1.185533129142511</v>
       </c>
       <c r="P15">
-        <v>0.6970769349297992</v>
+        <v>0.712431477626196</v>
       </c>
       <c r="Q15">
-        <v>56.83373702338294</v>
+        <v>56.22137407416817</v>
       </c>
       <c r="R15">
-        <v>-90.25143660412687</v>
+        <v>-90.23413189193782</v>
       </c>
       <c r="S15">
-        <v>122.4146133957323</v>
+        <v>123.0798609762603</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10729,22 +10729,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6923944845071857</v>
+        <v>0.7081027894379723</v>
       </c>
       <c r="O16">
-        <v>1.168071625419937</v>
+        <v>1.185533129688749</v>
       </c>
       <c r="P16">
-        <v>0.6970769382196771</v>
+        <v>0.7124314808603032</v>
       </c>
       <c r="Q16">
-        <v>56.8337369743572</v>
+        <v>56.22137402974024</v>
       </c>
       <c r="R16">
-        <v>-90.25143658768674</v>
+        <v>-90.23413186871427</v>
       </c>
       <c r="S16">
-        <v>122.4146130254156</v>
+        <v>123.0798606237809</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -10788,22 +10788,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6812180543117454</v>
+        <v>0.7081027894301175</v>
       </c>
       <c r="O17">
-        <v>1.152388892891623</v>
+        <v>1.185533129677961</v>
       </c>
       <c r="P17">
-        <v>0.6804248755765971</v>
+        <v>0.7124314808488402</v>
       </c>
       <c r="Q17">
-        <v>57.8768741796604</v>
+        <v>56.2213740304236</v>
       </c>
       <c r="R17">
-        <v>-89.95802279441889</v>
+        <v>-90.23413186851792</v>
       </c>
       <c r="S17">
-        <v>122.2490932400643</v>
+        <v>123.0798606236827</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -10847,22 +10847,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7037930944590286</v>
+        <v>0.7196288114987024</v>
       </c>
       <c r="O18">
-        <v>1.183784177974112</v>
+        <v>1.201243708549389</v>
       </c>
       <c r="P18">
-        <v>0.7137345420904617</v>
+        <v>0.7291102313322421</v>
       </c>
       <c r="Q18">
-        <v>55.82406328057795</v>
+        <v>55.2435850286676</v>
       </c>
       <c r="R18">
-        <v>-90.53706867822891</v>
+        <v>-90.51583853146363</v>
       </c>
       <c r="S18">
-        <v>122.5724086033532</v>
+        <v>123.2191223177876</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -10906,22 +10906,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7154032522165555</v>
+        <v>0.7313577702651154</v>
       </c>
       <c r="O19">
-        <v>1.199525379619429</v>
+        <v>1.216982576554094</v>
       </c>
       <c r="P19">
-        <v>0.7303973151996016</v>
+        <v>0.7457930990991903</v>
       </c>
       <c r="Q19">
-        <v>54.84686582949624</v>
+        <v>54.29688962242</v>
       </c>
       <c r="R19">
-        <v>-90.81521089554467</v>
+        <v>-90.79026520974257</v>
       </c>
       <c r="S19">
-        <v>122.7230053132289</v>
+        <v>123.3521541185031</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -10965,22 +10965,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7154032547064096</v>
+        <v>0.7313577726915088</v>
       </c>
       <c r="O20">
-        <v>1.19952537934937</v>
+        <v>1.216982576250019</v>
       </c>
       <c r="P20">
-        <v>0.7303973136301216</v>
+        <v>0.7457930975536612</v>
       </c>
       <c r="Q20">
-        <v>54.84686584656539</v>
+        <v>54.29688963693139</v>
       </c>
       <c r="R20">
-        <v>-90.81521091363449</v>
+        <v>-90.79026523100839</v>
       </c>
       <c r="S20">
-        <v>122.7230054748092</v>
+        <v>123.3521542718985</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -11024,22 +11024,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.715403255536361</v>
+        <v>0.7313577735003065</v>
       </c>
       <c r="O21">
-        <v>1.199525379259351</v>
+        <v>1.216982576148661</v>
       </c>
       <c r="P21">
-        <v>0.7303973131069614</v>
+        <v>0.7457930970384846</v>
       </c>
       <c r="Q21">
-        <v>54.84686585225513</v>
+        <v>54.29688964176853</v>
       </c>
       <c r="R21">
-        <v>-90.81521091966444</v>
+        <v>-90.79026523809699</v>
       </c>
       <c r="S21">
-        <v>122.7230055286692</v>
+        <v>123.3521543230302</v>
       </c>
     </row>
   </sheetData>
@@ -11119,7 +11119,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.75860103888406</v>
+        <v>57.76552958477605</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.4694385781591</v>
+        <v>333.5094405565175</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11146,31 +11146,31 @@
         <v>0.01094540888868901</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843162</v>
+        <v>0.01094540908575379</v>
       </c>
       <c r="M2">
-        <v>0.1094540868535997</v>
+        <v>0.1094540867823169</v>
       </c>
       <c r="N2">
-        <v>0.6353011906188168</v>
+        <v>0.6353773993140674</v>
       </c>
       <c r="O2">
-        <v>1.100396023024728</v>
+        <v>1.100528022738976</v>
       </c>
       <c r="P2">
-        <v>0.6352960428174459</v>
+        <v>0.6353722507145055</v>
       </c>
       <c r="Q2">
-        <v>60.00252771473514</v>
+        <v>60.00252770007356</v>
       </c>
       <c r="R2">
-        <v>-90.00000002821925</v>
+        <v>-90.00000003762688</v>
       </c>
       <c r="S2">
-        <v>119.9977402468187</v>
+        <v>119.997740252071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -11214,22 +11214,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6834263096893552</v>
+        <v>0.6997511009654069</v>
       </c>
       <c r="O3">
-        <v>1.154864758605431</v>
+        <v>1.173153144794591</v>
       </c>
       <c r="P3">
-        <v>0.6825982656700703</v>
+        <v>0.698674057738121</v>
       </c>
       <c r="Q3">
-        <v>57.78280078187813</v>
+        <v>57.11143449738638</v>
       </c>
       <c r="R3">
-        <v>-89.95611814922364</v>
+        <v>-89.94240296601841</v>
       </c>
       <c r="S3">
-        <v>122.3488461945627</v>
+        <v>123.0610187959586</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -11273,22 +11273,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7176675213614352</v>
+        <v>0.7343897335623765</v>
       </c>
       <c r="O4">
-        <v>1.202000395226277</v>
+        <v>1.220282641779385</v>
       </c>
       <c r="P4">
-        <v>0.7325803579770243</v>
+        <v>0.7487210939499017</v>
       </c>
       <c r="Q4">
-        <v>54.76672120741596</v>
+        <v>54.19472860363177</v>
       </c>
       <c r="R4">
-        <v>-90.81161561621002</v>
+        <v>-90.78561078211534</v>
       </c>
       <c r="S4">
-        <v>122.8145442255837</v>
+        <v>123.4691226269061</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -11332,22 +11332,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7060399813998186</v>
+        <v>0.722638837315551</v>
       </c>
       <c r="O5">
-        <v>1.186259529858941</v>
+        <v>1.204544209539008</v>
       </c>
       <c r="P5">
-        <v>0.715914532008556</v>
+        <v>0.7320347189669461</v>
       </c>
       <c r="Q5">
-        <v>55.73947790289742</v>
+        <v>55.13580662273937</v>
       </c>
       <c r="R5">
-        <v>-90.53400603441315</v>
+        <v>-90.51187516667679</v>
       </c>
       <c r="S5">
-        <v>122.6665371739281</v>
+        <v>123.339288586068</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -11391,22 +11391,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7176675231667674</v>
+        <v>0.7343897353191033</v>
       </c>
       <c r="O6">
-        <v>1.202000394990332</v>
+        <v>1.220282641519894</v>
       </c>
       <c r="P6">
-        <v>0.7325803566810811</v>
+        <v>0.748721092674872</v>
       </c>
       <c r="Q6">
-        <v>54.76672125357742</v>
+        <v>54.19472864731895</v>
       </c>
       <c r="R6">
-        <v>-90.81161560659577</v>
+        <v>-90.78561077503595</v>
       </c>
       <c r="S6">
-        <v>122.814544362992</v>
+        <v>123.4691227581891</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -11450,22 +11450,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7294953002259925</v>
+        <v>0.7463324850640136</v>
       </c>
       <c r="O7">
-        <v>1.217768748467106</v>
+        <v>1.236048217302748</v>
       </c>
       <c r="P7">
-        <v>0.7492508528825145</v>
+        <v>0.7654111438693225</v>
       </c>
       <c r="Q7">
-        <v>53.82524431395284</v>
+        <v>53.28352941617511</v>
       </c>
       <c r="R7">
-        <v>-91.08204209581919</v>
+        <v>-91.05236943813742</v>
       </c>
       <c r="S7">
-        <v>122.9559662214556</v>
+        <v>123.5932953386641</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -11509,22 +11509,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7415137284563871</v>
+        <v>0.7584580215132494</v>
       </c>
       <c r="O8">
-        <v>1.233563536505702</v>
+        <v>1.251839911729415</v>
       </c>
       <c r="P8">
-        <v>0.7659257172043994</v>
+        <v>0.7821046387171506</v>
       </c>
       <c r="Q8">
-        <v>52.91404673219366</v>
+        <v>52.40124773953291</v>
       </c>
       <c r="R8">
-        <v>-91.34554911622926</v>
+        <v>-91.31240338074778</v>
       </c>
       <c r="S8">
-        <v>123.0912309250628</v>
+        <v>123.7121675113873</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -11568,22 +11568,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7294953026297352</v>
+        <v>0.7463324874022755</v>
       </c>
       <c r="O9">
-        <v>1.217768748138118</v>
+        <v>1.23604821693843</v>
       </c>
       <c r="P9">
-        <v>0.7492508512947749</v>
+        <v>0.7654111423046825</v>
       </c>
       <c r="Q9">
-        <v>53.82524433164015</v>
+        <v>53.28352943095715</v>
       </c>
       <c r="R9">
-        <v>-91.0820421166981</v>
+        <v>-91.0523694622552</v>
       </c>
       <c r="S9">
-        <v>122.9559663730392</v>
+        <v>123.593295482069</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -11627,22 +11627,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7294953042322303</v>
+        <v>0.7463324889611166</v>
       </c>
       <c r="O10">
-        <v>1.217768747918792</v>
+        <v>1.23604821669555</v>
       </c>
       <c r="P10">
-        <v>0.7492508502362819</v>
+        <v>0.7654111412615888</v>
       </c>
       <c r="Q10">
-        <v>53.82524434343171</v>
+        <v>53.28352944081185</v>
       </c>
       <c r="R10">
-        <v>-91.08204213061738</v>
+        <v>-91.05236947833373</v>
       </c>
       <c r="S10">
-        <v>122.9559664740948</v>
+        <v>123.5932955776723</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -11686,22 +11686,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7294953050334779</v>
+        <v>0.746332489740537</v>
       </c>
       <c r="O11">
-        <v>1.217768747809129</v>
+        <v>1.23604821657411</v>
       </c>
       <c r="P11">
-        <v>0.7492508497070351</v>
+        <v>0.7654111407400419</v>
       </c>
       <c r="Q11">
-        <v>53.82524434932751</v>
+        <v>53.28352944573922</v>
       </c>
       <c r="R11">
-        <v>-91.08204213757701</v>
+        <v>-91.052369486373</v>
       </c>
       <c r="S11">
-        <v>122.9559665246227</v>
+        <v>123.5932956254739</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -11745,22 +11745,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.694622726098267</v>
+        <v>0.7110892980681267</v>
       </c>
       <c r="O12">
-        <v>1.170547262428207</v>
+        <v>1.188833999865262</v>
       </c>
       <c r="P12">
-        <v>0.6992537156177402</v>
+        <v>0.7153522827747274</v>
       </c>
       <c r="Q12">
-        <v>56.74450991957698</v>
+        <v>56.10772399200557</v>
       </c>
       <c r="R12">
-        <v>-90.24893688875152</v>
+        <v>-90.23089825175165</v>
       </c>
       <c r="S12">
-        <v>122.5114755346778</v>
+        <v>123.2033977217638</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -11804,22 +11804,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.683426312402023</v>
+        <v>0.7226388271464391</v>
       </c>
       <c r="O13">
-        <v>1.154864758495747</v>
+        <v>1.204544210631055</v>
       </c>
       <c r="P13">
-        <v>0.682598264166051</v>
+        <v>0.7320347253713768</v>
       </c>
       <c r="Q13">
-        <v>57.7828007934288</v>
+        <v>55.13580652469969</v>
       </c>
       <c r="R13">
-        <v>-89.95611816053808</v>
+        <v>-90.51187511770688</v>
       </c>
       <c r="S13">
-        <v>122.3488463839641</v>
+        <v>123.3392879022854</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -11863,22 +11863,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6946227287317189</v>
+        <v>0.7110893006321349</v>
       </c>
       <c r="O14">
-        <v>1.170547262198305</v>
+        <v>1.188833999599115</v>
       </c>
       <c r="P14">
-        <v>0.6992537139800445</v>
+        <v>0.7153522811660584</v>
       </c>
       <c r="Q14">
-        <v>56.74450994470435</v>
+        <v>56.10772401470351</v>
       </c>
       <c r="R14">
-        <v>-90.24893689650149</v>
+        <v>-90.23089826305106</v>
       </c>
       <c r="S14">
-        <v>122.5114757204836</v>
+        <v>123.2033978982282</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -11922,22 +11922,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6946227304449011</v>
+        <v>0.7110893022987612</v>
       </c>
       <c r="O15">
-        <v>1.170547261996462</v>
+        <v>1.188833999373107</v>
       </c>
       <c r="P15">
-        <v>0.6992537128442143</v>
+        <v>0.7153522800493345</v>
       </c>
       <c r="Q15">
-        <v>56.74450996341025</v>
+        <v>56.10772403170633</v>
       </c>
       <c r="R15">
-        <v>-90.24893690157792</v>
+        <v>-90.23089827049442</v>
       </c>
       <c r="S15">
-        <v>122.5114758426661</v>
+        <v>123.203398014264</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -11981,22 +11981,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6946227252198276</v>
+        <v>0.7110892972123211</v>
       </c>
       <c r="O16">
-        <v>1.170547262483287</v>
+        <v>1.188833999932437</v>
       </c>
       <c r="P16">
-        <v>0.6992537161257317</v>
+        <v>0.7153522832733664</v>
       </c>
       <c r="Q16">
-        <v>56.74450991501823</v>
+        <v>56.10772398816749</v>
       </c>
       <c r="R16">
-        <v>-90.24893688416358</v>
+        <v>-90.23089824601109</v>
       </c>
       <c r="S16">
-        <v>122.5114754749174</v>
+        <v>123.2033976651047</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -12040,22 +12040,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6834263114978006</v>
+        <v>0.7110892972044496</v>
       </c>
       <c r="O17">
-        <v>1.154864758532308</v>
+        <v>1.188833999921649</v>
       </c>
       <c r="P17">
-        <v>0.6825982646673909</v>
+        <v>0.715352283261901</v>
       </c>
       <c r="Q17">
-        <v>57.78280078957856</v>
+        <v>56.10772398884671</v>
       </c>
       <c r="R17">
-        <v>-89.95611815676661</v>
+        <v>-90.23089824581524</v>
       </c>
       <c r="S17">
-        <v>122.3488463208303</v>
+        <v>123.2033976650089</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -12099,22 +12099,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7060399779819369</v>
+        <v>0.7226388339899371</v>
       </c>
       <c r="O18">
-        <v>1.186259530261592</v>
+        <v>1.204544209989502</v>
       </c>
       <c r="P18">
-        <v>0.7159145342721374</v>
+        <v>0.7320347211935159</v>
       </c>
       <c r="Q18">
-        <v>55.73947786121914</v>
+        <v>55.13580658479919</v>
       </c>
       <c r="R18">
-        <v>-90.53400602429788</v>
+        <v>-90.51187515187897</v>
       </c>
       <c r="S18">
-        <v>122.6665369347587</v>
+        <v>123.3392883588713</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -12158,22 +12158,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7176675180537627</v>
+        <v>0.7343897303431444</v>
       </c>
       <c r="O19">
-        <v>1.202000395592779</v>
+        <v>1.220282642193398</v>
       </c>
       <c r="P19">
-        <v>0.7325803600648617</v>
+        <v>0.7487210960048509</v>
       </c>
       <c r="Q19">
-        <v>54.76672118513302</v>
+        <v>54.19472858493479</v>
       </c>
       <c r="R19">
-        <v>-90.81161559148225</v>
+        <v>-90.78561075297418</v>
       </c>
       <c r="S19">
-        <v>122.8145440117147</v>
+        <v>123.4691224244107</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -12217,22 +12217,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7176675205345172</v>
+        <v>0.7343897327575682</v>
       </c>
       <c r="O20">
-        <v>1.202000395317903</v>
+        <v>1.220282641882888</v>
       </c>
       <c r="P20">
-        <v>0.7325803584989837</v>
+        <v>0.748721094463639</v>
       </c>
       <c r="Q20">
-        <v>54.76672120184523</v>
+        <v>54.19472859895751</v>
       </c>
       <c r="R20">
-        <v>-90.81161561002808</v>
+        <v>-90.78561077483006</v>
       </c>
       <c r="S20">
-        <v>122.8145441721165</v>
+        <v>123.4691225762823</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -12276,22 +12276,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.717667521361435</v>
+        <v>0.7343897335623764</v>
       </c>
       <c r="O21">
-        <v>1.202000395226277</v>
+        <v>1.220282641779385</v>
       </c>
       <c r="P21">
-        <v>0.7325803579770244</v>
+        <v>0.7487210939499017</v>
       </c>
       <c r="Q21">
-        <v>54.76672120741596</v>
+        <v>54.19472860363177</v>
       </c>
       <c r="R21">
-        <v>-90.81161561621002</v>
+        <v>-90.78561078211534</v>
       </c>
       <c r="S21">
-        <v>122.8145442255837</v>
+        <v>123.4691226269061</v>
       </c>
     </row>
   </sheetData>
@@ -12371,7 +12371,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8877392559360123</v>
+        <v>0.8878457462563535</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.125364983848548</v>
+        <v>5.125979805999699</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12401,28 +12401,28 @@
         <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843165</v>
+        <v>0.01094540908575383</v>
       </c>
       <c r="M2">
-        <v>0.1094540868535998</v>
+        <v>0.1094540867823169</v>
       </c>
       <c r="N2">
-        <v>1.090745078253792</v>
+        <v>1.090875920497065</v>
       </c>
       <c r="O2">
-        <v>1.100396023642246</v>
+        <v>1.100528023576525</v>
       </c>
       <c r="P2">
-        <v>1.096891618324559</v>
+        <v>1.09702319787941</v>
       </c>
       <c r="Q2">
-        <v>29.92212934450222</v>
+        <v>29.92212934457147</v>
       </c>
       <c r="R2">
-        <v>-90.00000000066724</v>
+        <v>-90.00000000089086</v>
       </c>
       <c r="S2">
-        <v>149.5246562938058</v>
+        <v>149.5246562939562</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -12466,22 +12466,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.142736897102692</v>
+        <v>1.160198498792157</v>
       </c>
       <c r="O3">
-        <v>1.152388979124058</v>
+        <v>1.169852093629657</v>
       </c>
       <c r="P3">
-        <v>1.148876177182272</v>
+        <v>1.166336239172705</v>
       </c>
       <c r="Q3">
-        <v>29.96800776958601</v>
+        <v>29.98237991851307</v>
       </c>
       <c r="R3">
-        <v>-89.95801923986545</v>
+        <v>-89.94486121359475</v>
       </c>
       <c r="S3">
-        <v>149.5882756601655</v>
+        <v>149.6082122831307</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -12525,22 +12525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.189896788426746</v>
+        <v>1.207352133610576</v>
       </c>
       <c r="O4">
-        <v>1.199525566127318</v>
+        <v>1.216982791475544</v>
       </c>
       <c r="P4">
-        <v>1.196148234257819</v>
+        <v>1.213600559868884</v>
       </c>
       <c r="Q4">
-        <v>29.1068073796895</v>
+        <v>29.13307144638458</v>
       </c>
       <c r="R4">
-        <v>-90.81520580568809</v>
+        <v>-90.79025906135421</v>
       </c>
       <c r="S4">
-        <v>148.746525751172</v>
+        <v>148.777793608205</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -12584,22 +12584,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.174147754785882</v>
+        <v>1.191605556304707</v>
       </c>
       <c r="O5">
-        <v>1.183784330980649</v>
+        <v>1.201243890069273</v>
       </c>
       <c r="P5">
-        <v>1.180362962125963</v>
+        <v>1.197818205512041</v>
       </c>
       <c r="Q5">
-        <v>29.38618514198658</v>
+        <v>29.40870352023116</v>
       </c>
       <c r="R5">
-        <v>-90.5370640972836</v>
+        <v>-90.51583287611965</v>
       </c>
       <c r="S5">
-        <v>149.019615564248</v>
+        <v>149.0473161599419</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -12643,22 +12643,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.18989678820243</v>
+        <v>1.207352133363868</v>
       </c>
       <c r="O6">
-        <v>1.199525565894539</v>
+        <v>1.216982791220287</v>
       </c>
       <c r="P6">
-        <v>1.196148234002814</v>
+        <v>1.213600559591802</v>
       </c>
       <c r="Q6">
-        <v>29.1068073911004</v>
+        <v>29.13307145532178</v>
       </c>
       <c r="R6">
-        <v>-90.81520579572552</v>
+        <v>-90.79025905382379</v>
       </c>
       <c r="S6">
-        <v>148.7465257621217</v>
+        <v>148.7777936166955</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -12702,22 +12702,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.205673373178325</v>
+        <v>1.223125932110335</v>
       </c>
       <c r="O7">
-        <v>1.215294336313009</v>
+        <v>1.232748897600135</v>
       </c>
       <c r="P7">
-        <v>1.211959971589275</v>
+        <v>1.22940907867726</v>
       </c>
       <c r="Q7">
-        <v>28.83473479438328</v>
+        <v>28.86454258257543</v>
       </c>
       <c r="R7">
-        <v>-91.08613580925721</v>
+        <v>-91.05767174237374</v>
       </c>
       <c r="S7">
-        <v>148.480555741772</v>
+        <v>148.5151967754594</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -12761,22 +12761,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.221476442475694</v>
+        <v>1.238925913161093</v>
       </c>
       <c r="O8">
-        <v>1.231089584489331</v>
+        <v>1.248541178973146</v>
       </c>
       <c r="P8">
-        <v>1.2277971527697</v>
+        <v>1.245242766668205</v>
       </c>
       <c r="Q8">
-        <v>28.56969634927798</v>
+        <v>28.6028571914016</v>
       </c>
       <c r="R8">
-        <v>-91.350119346667</v>
+        <v>-91.31832517370117</v>
       </c>
       <c r="S8">
-        <v>148.2214417012584</v>
+        <v>148.2592727182276</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -12820,22 +12820,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.205673372867629</v>
+        <v>1.223125931766026</v>
       </c>
       <c r="O9">
-        <v>1.215294335988796</v>
+        <v>1.232748897242197</v>
       </c>
       <c r="P9">
-        <v>1.211959971237243</v>
+        <v>1.229409078292017</v>
       </c>
       <c r="Q9">
-        <v>28.83473477581637</v>
+        <v>28.86454256084803</v>
       </c>
       <c r="R9">
-        <v>-91.08613582969008</v>
+        <v>-91.05767176591412</v>
       </c>
       <c r="S9">
-        <v>148.4805557227072</v>
+        <v>148.5151967532501</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -12879,22 +12879,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.205673372660498</v>
+        <v>1.223125931536488</v>
       </c>
       <c r="O10">
-        <v>1.215294335772655</v>
+        <v>1.232748897003572</v>
       </c>
       <c r="P10">
-        <v>1.211959971002555</v>
+        <v>1.229409078035189</v>
       </c>
       <c r="Q10">
-        <v>28.83473476343842</v>
+        <v>28.86454254636309</v>
       </c>
       <c r="R10">
-        <v>-91.08613584331199</v>
+        <v>-91.05767178160772</v>
       </c>
       <c r="S10">
-        <v>148.4805557099973</v>
+        <v>148.515196738444</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -12938,22 +12938,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.205673372556933</v>
+        <v>1.223125931421718</v>
       </c>
       <c r="O11">
-        <v>1.215294335664584</v>
+        <v>1.23274889688426</v>
       </c>
       <c r="P11">
-        <v>1.211959970885211</v>
+        <v>1.229409077906774</v>
       </c>
       <c r="Q11">
-        <v>28.83473475724945</v>
+        <v>28.86454253912062</v>
       </c>
       <c r="R11">
-        <v>-91.08613585012294</v>
+        <v>-91.0576717894545</v>
       </c>
       <c r="S11">
-        <v>148.4805557036424</v>
+        <v>148.5151967310409</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -12997,22 +12997,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.15842739701474</v>
+        <v>1.175887294966372</v>
       </c>
       <c r="O12">
-        <v>1.168071745201372</v>
+        <v>1.185533278121512</v>
       </c>
       <c r="P12">
-        <v>1.164605232573982</v>
+        <v>1.182063064975527</v>
       </c>
       <c r="Q12">
-        <v>29.6731524369018</v>
+        <v>29.69171113196311</v>
       </c>
       <c r="R12">
-        <v>-90.251432524165</v>
+        <v>-90.23412671127997</v>
       </c>
       <c r="S12">
-        <v>149.300101998715</v>
+        <v>149.3240296529871</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -13056,22 +13056,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.142736897012013</v>
+        <v>1.19160555731616</v>
       </c>
       <c r="O13">
-        <v>1.15238897901933</v>
+        <v>1.201243891135412</v>
       </c>
       <c r="P13">
-        <v>1.148876177048801</v>
+        <v>1.197818206693866</v>
       </c>
       <c r="Q13">
-        <v>29.96800776081048</v>
+        <v>29.40870355887987</v>
       </c>
       <c r="R13">
-        <v>-89.95801925069267</v>
+        <v>-90.51583282964086</v>
       </c>
       <c r="S13">
-        <v>149.588275650918</v>
+        <v>149.0473162006507</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -13115,22 +13115,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.158427396803478</v>
+        <v>1.175887294720612</v>
       </c>
       <c r="O14">
-        <v>1.168071744976368</v>
+        <v>1.185533277861904</v>
       </c>
       <c r="P14">
-        <v>1.164605232319505</v>
+        <v>1.182063064687001</v>
       </c>
       <c r="Q14">
-        <v>29.67315243168987</v>
+        <v>29.69171112328487</v>
       </c>
       <c r="R14">
-        <v>-90.25143253142612</v>
+        <v>-90.23412672194712</v>
       </c>
       <c r="S14">
-        <v>149.3001019929698</v>
+        <v>149.3240296437927</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -13174,22 +13174,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.158427396614055</v>
+        <v>1.175887294508192</v>
       </c>
       <c r="O15">
-        <v>1.168071744777786</v>
+        <v>1.185533277640253</v>
       </c>
       <c r="P15">
-        <v>1.164605232101262</v>
+        <v>1.182063064446059</v>
       </c>
       <c r="Q15">
-        <v>29.67315242830305</v>
+        <v>29.69171111758664</v>
       </c>
       <c r="R15">
-        <v>-90.25143253617665</v>
+        <v>-90.23412672896897</v>
       </c>
       <c r="S15">
-        <v>149.3001019892114</v>
+        <v>149.3240296377348</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -13233,22 +13233,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.158427397063549</v>
+        <v>1.175887295026693</v>
       </c>
       <c r="O16">
-        <v>1.168071745254816</v>
+        <v>1.185533278186503</v>
       </c>
       <c r="P16">
-        <v>1.164605232636929</v>
+        <v>1.182063065049842</v>
       </c>
       <c r="Q16">
-        <v>29.67315244066314</v>
+        <v>29.69171113685018</v>
       </c>
       <c r="R16">
-        <v>-90.2514325197359</v>
+        <v>-90.2341267057448</v>
       </c>
       <c r="S16">
-        <v>149.3001020026364</v>
+        <v>149.3240296580291</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -13292,22 +13292,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.14273689704224</v>
+        <v>1.175887295015897</v>
       </c>
       <c r="O17">
-        <v>1.152388979054239</v>
+        <v>1.185533278175712</v>
       </c>
       <c r="P17">
-        <v>1.148876177093291</v>
+        <v>1.18206306503902</v>
       </c>
       <c r="Q17">
-        <v>29.96800776373566</v>
+        <v>29.69171113704734</v>
       </c>
       <c r="R17">
-        <v>-89.9580192470836</v>
+        <v>-90.23412670554856</v>
       </c>
       <c r="S17">
-        <v>149.5882756540005</v>
+        <v>149.3240296582219</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -13351,22 +13351,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.174147755164037</v>
+        <v>1.191605556728387</v>
       </c>
       <c r="O18">
-        <v>1.183784331376842</v>
+        <v>1.20124389051114</v>
       </c>
       <c r="P18">
-        <v>1.180362962561695</v>
+        <v>1.197818205992712</v>
       </c>
       <c r="Q18">
-        <v>29.38618514876203</v>
+        <v>29.40870353157807</v>
       </c>
       <c r="R18">
-        <v>-90.53706408781294</v>
+        <v>-90.51583286215583</v>
       </c>
       <c r="S18">
-        <v>149.0196155717681</v>
+        <v>149.0473161720096</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -13410,22 +13410,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.18989678876864</v>
+        <v>1.207352133997678</v>
       </c>
       <c r="O19">
-        <v>1.199525566487396</v>
+        <v>1.216982791880976</v>
       </c>
       <c r="P19">
-        <v>1.196148234655297</v>
+        <v>1.213600560311019</v>
       </c>
       <c r="Q19">
-        <v>29.10680740126213</v>
+        <v>29.13307147226505</v>
       </c>
       <c r="R19">
-        <v>-90.81520578156828</v>
+        <v>-90.79025903299973</v>
       </c>
       <c r="S19">
-        <v>148.7465257734019</v>
+        <v>148.7777936347215</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -13469,22 +13469,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.18989678851222</v>
+        <v>1.207352133707351</v>
       </c>
       <c r="O20">
-        <v>1.199525566217338</v>
+        <v>1.216982791576902</v>
       </c>
       <c r="P20">
-        <v>1.196148234357189</v>
+        <v>1.213600559979417</v>
       </c>
       <c r="Q20">
-        <v>29.10680738508266</v>
+        <v>29.13307145285469</v>
       </c>
       <c r="R20">
-        <v>-90.81520579965814</v>
+        <v>-90.79025905426559</v>
       </c>
       <c r="S20">
-        <v>148.7465257567295</v>
+        <v>148.7777936148341</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -13528,22 +13528,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.189896788426746</v>
+        <v>1.207352133610576</v>
       </c>
       <c r="O21">
-        <v>1.199525566127318</v>
+        <v>1.216982791475544</v>
       </c>
       <c r="P21">
-        <v>1.196148234257819</v>
+        <v>1.213600559868884</v>
       </c>
       <c r="Q21">
-        <v>29.1068073796895</v>
+        <v>29.13307144638458</v>
       </c>
       <c r="R21">
-        <v>-90.81520580568809</v>
+        <v>-90.79025906135421</v>
       </c>
       <c r="S21">
-        <v>148.746525751172</v>
+        <v>148.777793608205</v>
       </c>
     </row>
   </sheetData>
@@ -13587,10 +13587,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.75581479437073</v>
+        <v>57.76274299444142</v>
       </c>
       <c r="C2">
-        <v>1000.360056563883</v>
+        <v>1000.480056509158</v>
       </c>
       <c r="D2">
         <v>0.01094540889423946</v>
@@ -13622,10 +13622,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.05447567241102363</v>
+        <v>0.07263422888783024</v>
       </c>
       <c r="G3">
-        <v>0.9304373734425723</v>
+        <v>0.9304282653948482</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13645,10 +13645,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1029023118680424</v>
+        <v>0.1208043792906882</v>
       </c>
       <c r="G4">
-        <v>-9.52385265003597</v>
+        <v>-7.960946047193888</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -13668,10 +13668,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.08652142774369884</v>
+        <v>0.1045237284023554</v>
       </c>
       <c r="G5">
-        <v>-7.341397750189173</v>
+        <v>-5.909203752431321</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13691,10 +13691,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1029023125957495</v>
+        <v>0.1208043800938625</v>
       </c>
       <c r="G6">
-        <v>-9.523850757851093</v>
+        <v>-7.960944470655649</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -13714,10 +13714,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1193914312804906</v>
+        <v>0.1372030835068811</v>
       </c>
       <c r="G7">
-        <v>-11.1052653108688</v>
+        <v>-9.523857109494227</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13737,10 +13737,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1359494058514099</v>
+        <v>0.1536820518846712</v>
       </c>
       <c r="G8">
-        <v>-12.30220121577456</v>
+        <v>-10.75235496761882</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -13760,10 +13760,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1193914323865359</v>
+        <v>0.1372030847106123</v>
       </c>
       <c r="G9">
-        <v>-11.10526320073827</v>
+        <v>-9.523855320344532</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13783,10 +13783,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1193914331238995</v>
+        <v>0.1372030855131</v>
       </c>
       <c r="G10">
-        <v>-11.10526179398464</v>
+        <v>-9.52385412757811</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13806,10 +13806,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1193914334925814</v>
+        <v>0.1372030859143436</v>
       </c>
       <c r="G11">
-        <v>-11.1052610906078</v>
+        <v>-9.523853531194895</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13829,10 +13829,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.07032444839194781</v>
+        <v>0.08842635505798348</v>
       </c>
       <c r="G12">
-        <v>-4.147046498801703</v>
+        <v>-3.105687816162403</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13852,10 +13852,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.05447567464080066</v>
+        <v>0.1045237222311109</v>
       </c>
       <c r="G13">
-        <v>0.9304418701179283</v>
+        <v>-5.909213547662606</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13875,10 +13875,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.07032445010870876</v>
+        <v>0.08842635682448069</v>
       </c>
       <c r="G14">
-        <v>-4.147042818013654</v>
+        <v>-3.105684959696208</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13898,10 +13898,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.070324451204623</v>
+        <v>0.0884263579535335</v>
       </c>
       <c r="G15">
-        <v>-4.147040365348916</v>
+        <v>-3.105683055762503</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13921,10 +13921,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.07032444779540468</v>
+        <v>0.08842635444558164</v>
       </c>
       <c r="G16">
-        <v>-4.147047693637338</v>
+        <v>-3.105688742512228</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13944,10 +13944,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.05447567389754168</v>
+        <v>0.0884263544346006</v>
       </c>
       <c r="G17">
-        <v>0.930440371226148</v>
+        <v>-3.105688740234845</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13967,10 +13967,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.08652142589077183</v>
+        <v>0.1045237264343931</v>
       </c>
       <c r="G18">
-        <v>-7.341401811916817</v>
+        <v>-5.909207030547844</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13990,10 +13990,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1029023101687396</v>
+        <v>0.1208043774649663</v>
       </c>
       <c r="G19">
-        <v>-9.523855935788788</v>
+        <v>-7.960948772546637</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14013,10 +14013,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1029023114432167</v>
+        <v>0.1208043788342577</v>
       </c>
       <c r="G20">
-        <v>-9.523853471474197</v>
+        <v>-7.960946728532095</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -14036,10 +14036,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1029023118680424</v>
+        <v>0.1208043792906882</v>
       </c>
       <c r="G21">
-        <v>-9.523852650036016</v>
+        <v>-7.960946047193921</v>
       </c>
     </row>
   </sheetData>
@@ -14119,7 +14119,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8877392556732285</v>
+        <v>0.8878457459935261</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.125364982331366</v>
+        <v>5.125979804482264</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -14146,31 +14146,31 @@
         <v>0.01094540888868901</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843162</v>
+        <v>0.01094540908575379</v>
       </c>
       <c r="M2">
-        <v>0.1094540868535997</v>
+        <v>0.1094540867823169</v>
       </c>
       <c r="N2">
-        <v>1.090745078256491</v>
+        <v>1.09087592049975</v>
       </c>
       <c r="O2">
-        <v>1.100396023642198</v>
+        <v>1.100528023576462</v>
       </c>
       <c r="P2">
-        <v>1.09689161832487</v>
+        <v>1.097023197879705</v>
       </c>
       <c r="Q2">
-        <v>29.92212934456256</v>
+        <v>29.92212934463182</v>
       </c>
       <c r="R2">
-        <v>-90.00000000066724</v>
+        <v>-90.00000000089086</v>
       </c>
       <c r="S2">
-        <v>149.5246562939602</v>
+        <v>149.5246562941106</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -14214,22 +14214,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.145212715402812</v>
+        <v>1.163499603946558</v>
       </c>
       <c r="O3">
-        <v>1.154864848844089</v>
+        <v>1.173153265165176</v>
       </c>
       <c r="P3">
-        <v>1.151351666019911</v>
+        <v>1.169636918208215</v>
       </c>
       <c r="Q3">
-        <v>29.97008855009646</v>
+        <v>29.98506991019655</v>
       </c>
       <c r="R3">
-        <v>-89.95611444233271</v>
+        <v>-89.94239810137123</v>
       </c>
       <c r="S3">
-        <v>149.5911618553694</v>
+        <v>149.6119441221032</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -14273,22 +14273,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.192371703793132</v>
+        <v>1.210652069534343</v>
       </c>
       <c r="O4">
-        <v>1.202000586123827</v>
+        <v>1.220282862483464</v>
       </c>
       <c r="P4">
-        <v>1.198622606168094</v>
+        <v>1.216899791952537</v>
       </c>
       <c r="Q4">
-        <v>29.11059375098545</v>
+        <v>29.13797212118964</v>
       </c>
       <c r="R4">
-        <v>-90.81161034969945</v>
+        <v>-90.78560440809078</v>
       </c>
       <c r="S4">
-        <v>148.7510362063069</v>
+        <v>148.7836324493294</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -14332,22 +14332,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.176623024237001</v>
+        <v>1.194905950979748</v>
       </c>
       <c r="O5">
-        <v>1.186259687306178</v>
+        <v>1.204544396897304</v>
       </c>
       <c r="P5">
-        <v>1.182837754835788</v>
+        <v>1.201117983024704</v>
       </c>
       <c r="Q5">
-        <v>29.38943450468936</v>
+        <v>29.41290751615607</v>
       </c>
       <c r="R5">
-        <v>-90.53400128912151</v>
+        <v>-90.51186929711066</v>
       </c>
       <c r="S5">
-        <v>149.0236148865275</v>
+        <v>149.0524913328355</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -14391,22 +14391,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.192371703565646</v>
+        <v>1.210652069283397</v>
       </c>
       <c r="O6">
-        <v>1.202000585887864</v>
+        <v>1.220282862223955</v>
       </c>
       <c r="P6">
-        <v>1.198622605909964</v>
+        <v>1.216899791671276</v>
       </c>
       <c r="Q6">
-        <v>29.11059376204115</v>
+        <v>29.13797212966732</v>
       </c>
       <c r="R6">
-        <v>-90.81161034008605</v>
+        <v>-90.78560440101224</v>
       </c>
       <c r="S6">
-        <v>148.7510362169035</v>
+        <v>148.7836324573631</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -14450,22 +14450,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.208147887254945</v>
+        <v>1.226425347821729</v>
       </c>
       <c r="O7">
-        <v>1.217768972714665</v>
+        <v>1.236048471256083</v>
       </c>
       <c r="P7">
-        <v>1.214433879720644</v>
+        <v>1.23270770927526</v>
       </c>
       <c r="Q7">
-        <v>28.83902902395405</v>
+        <v>28.87010270085332</v>
       </c>
       <c r="R7">
-        <v>-91.08203630767242</v>
+        <v>-91.05236255919904</v>
       </c>
       <c r="S7">
-        <v>148.4855493281804</v>
+        <v>148.5216634930061</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -14509,22 +14509,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.223950512081919</v>
+        <v>1.24222475235428</v>
       </c>
       <c r="O8">
-        <v>1.233563794004854</v>
+        <v>1.251840198837251</v>
       </c>
       <c r="P8">
-        <v>1.230270557899294</v>
+        <v>1.248540744541631</v>
       </c>
       <c r="Q8">
-        <v>28.57447092802511</v>
+        <v>28.6090415829706</v>
       </c>
       <c r="R8">
-        <v>-91.34554280663643</v>
+        <v>-91.3123959970152</v>
       </c>
       <c r="S8">
-        <v>148.2268919987672</v>
+        <v>148.2663335115891</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -14568,22 +14568,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.208147886939488</v>
+        <v>1.22642534747106</v>
       </c>
       <c r="O9">
-        <v>1.217768972385676</v>
+        <v>1.236048470891765</v>
       </c>
       <c r="P9">
-        <v>1.214433879363909</v>
+        <v>1.232707708883732</v>
       </c>
       <c r="Q9">
-        <v>28.83902900493336</v>
+        <v>28.87010267853865</v>
       </c>
       <c r="R9">
-        <v>-91.0820363285514</v>
+        <v>-91.05236258331688</v>
       </c>
       <c r="S9">
-        <v>148.4855493086641</v>
+        <v>148.5216634702126</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -14627,22 +14627,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.208147886729184</v>
+        <v>1.226425347237281</v>
       </c>
       <c r="O10">
-        <v>1.21776897216635</v>
+        <v>1.236048470648885</v>
       </c>
       <c r="P10">
-        <v>1.214433879126086</v>
+        <v>1.232707708622714</v>
       </c>
       <c r="Q10">
-        <v>28.83902899225289</v>
+        <v>28.87010266366221</v>
       </c>
       <c r="R10">
-        <v>-91.08203634247069</v>
+        <v>-91.05236259939545</v>
       </c>
       <c r="S10">
-        <v>148.4855492956533</v>
+        <v>148.5216634550169</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -14686,22 +14686,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.208147886624032</v>
+        <v>1.226425347120391</v>
       </c>
       <c r="O11">
-        <v>1.217768972056687</v>
+        <v>1.236048470527445</v>
       </c>
       <c r="P11">
-        <v>1.214433879007175</v>
+        <v>1.232707708492205</v>
       </c>
       <c r="Q11">
-        <v>28.83902898591266</v>
+        <v>28.87010265622399</v>
       </c>
       <c r="R11">
-        <v>-91.08203634943035</v>
+        <v>-91.05236260743473</v>
       </c>
       <c r="S11">
-        <v>148.4855492891479</v>
+        <v>148.5216634474191</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -14745,22 +14745,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.160902969020863</v>
+        <v>1.179188081400391</v>
       </c>
       <c r="O12">
-        <v>1.170547386323086</v>
+        <v>1.188834153779627</v>
       </c>
       <c r="P12">
-        <v>1.16708039906678</v>
+        <v>1.185363326691128</v>
       </c>
       <c r="Q12">
-        <v>29.67583389289729</v>
+        <v>29.69517901659518</v>
       </c>
       <c r="R12">
-        <v>-90.24893266358197</v>
+        <v>-90.23089288554611</v>
       </c>
       <c r="S12">
-        <v>149.3035605021587</v>
+        <v>149.3285032472241</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -14804,22 +14804,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.145212715307192</v>
+        <v>1.194905952017046</v>
       </c>
       <c r="O13">
-        <v>1.154864848734406</v>
+        <v>1.204544397989369</v>
       </c>
       <c r="P13">
-        <v>1.151351665881563</v>
+        <v>1.201117984232044</v>
       </c>
       <c r="Q13">
-        <v>29.97008854082484</v>
+        <v>29.41290755734025</v>
       </c>
       <c r="R13">
-        <v>-89.95611445364717</v>
+        <v>-90.51186924813973</v>
       </c>
       <c r="S13">
-        <v>149.5911618456279</v>
+        <v>149.052491376067</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -14863,22 +14863,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.160902968804713</v>
+        <v>1.179188081148107</v>
       </c>
       <c r="O14">
-        <v>1.170547386093179</v>
+        <v>1.188834153513474</v>
       </c>
       <c r="P14">
-        <v>1.167080398807481</v>
+        <v>1.185363326396161</v>
       </c>
       <c r="Q14">
-        <v>29.67583388718745</v>
+        <v>29.69517900727325</v>
       </c>
       <c r="R14">
-        <v>-90.24893267133224</v>
+        <v>-90.23089289684582</v>
       </c>
       <c r="S14">
-        <v>149.3035604959181</v>
+        <v>149.3285032373892</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -14922,22 +14922,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.160902968612032</v>
+        <v>1.179188080931336</v>
       </c>
       <c r="O15">
-        <v>1.170547385891329</v>
+        <v>1.18883415328746</v>
       </c>
       <c r="P15">
-        <v>1.167080398586024</v>
+        <v>1.185363326150925</v>
       </c>
       <c r="Q15">
-        <v>29.67583388346861</v>
+        <v>29.69517900114579</v>
       </c>
       <c r="R15">
-        <v>-90.24893267640897</v>
+        <v>-90.23089290428949</v>
       </c>
       <c r="S15">
-        <v>149.3035604918294</v>
+        <v>149.3285032309042</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -14981,22 +14981,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.160902969071303</v>
+        <v>1.179188081462891</v>
       </c>
       <c r="O16">
-        <v>1.170547386378166</v>
+        <v>1.188834153846802</v>
       </c>
       <c r="P16">
-        <v>1.167080399131338</v>
+        <v>1.185363326767593</v>
       </c>
       <c r="Q16">
-        <v>29.67583389682033</v>
+        <v>29.6951790216913</v>
       </c>
       <c r="R16">
-        <v>-90.24893265899401</v>
+        <v>-90.23089287980554</v>
       </c>
       <c r="S16">
-        <v>149.3035605062411</v>
+        <v>149.3285032524742</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -15040,22 +15040,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.145212715339065</v>
+        <v>1.179188081452094</v>
       </c>
       <c r="O17">
-        <v>1.154864848770967</v>
+        <v>1.188834153836011</v>
       </c>
       <c r="P17">
-        <v>1.151351665927679</v>
+        <v>1.185363326756771</v>
       </c>
       <c r="Q17">
-        <v>29.97008854391539</v>
+        <v>29.69517902188795</v>
       </c>
       <c r="R17">
-        <v>-89.95611444987568</v>
+        <v>-90.23089287960981</v>
       </c>
       <c r="S17">
-        <v>149.5911618488751</v>
+        <v>149.3285032526665</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -15099,22 +15099,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.176623024621604</v>
+        <v>1.194905951412041</v>
       </c>
       <c r="O18">
-        <v>1.18625968770884</v>
+        <v>1.204544397347811</v>
       </c>
       <c r="P18">
-        <v>1.182837755277883</v>
+        <v>1.201117983513877</v>
       </c>
       <c r="Q18">
-        <v>29.38943451212137</v>
+        <v>29.41290752835206</v>
       </c>
       <c r="R18">
-        <v>-90.53400127900564</v>
+        <v>-90.51186928231223</v>
       </c>
       <c r="S18">
-        <v>149.0236148947007</v>
+        <v>149.0524913457478</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -15158,22 +15158,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.19237170414143</v>
+        <v>1.210652069929998</v>
       </c>
       <c r="O19">
-        <v>1.202000586490329</v>
+        <v>1.220282862897477</v>
       </c>
       <c r="P19">
-        <v>1.198622606571896</v>
+        <v>1.216899792403122</v>
       </c>
       <c r="Q19">
-        <v>29.1105937731767</v>
+        <v>29.13797214787042</v>
       </c>
       <c r="R19">
-        <v>-90.81161032497164</v>
+        <v>-90.78560437894954</v>
       </c>
       <c r="S19">
-        <v>148.7510362291524</v>
+        <v>148.7836324766424</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -15217,22 +15217,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.192371703880207</v>
+        <v>1.210652069633257</v>
       </c>
       <c r="O20">
-        <v>1.202000586215453</v>
+        <v>1.220282862586967</v>
       </c>
       <c r="P20">
-        <v>1.198622606269045</v>
+        <v>1.216899792065183</v>
       </c>
       <c r="Q20">
-        <v>29.11059375653327</v>
+        <v>29.13797212785984</v>
       </c>
       <c r="R20">
-        <v>-90.8116103435175</v>
+        <v>-90.78560440080548</v>
       </c>
       <c r="S20">
-        <v>148.7510362120183</v>
+        <v>148.7836324561576</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -15276,22 +15276,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.192371703793132</v>
+        <v>1.210652069534343</v>
       </c>
       <c r="O21">
-        <v>1.202000586123827</v>
+        <v>1.220282862483464</v>
       </c>
       <c r="P21">
-        <v>1.198622606168094</v>
+        <v>1.216899791952537</v>
       </c>
       <c r="Q21">
-        <v>29.11059375098545</v>
+        <v>29.13797212118965</v>
       </c>
       <c r="R21">
-        <v>-90.81161034969945</v>
+        <v>-90.78560440809078</v>
       </c>
       <c r="S21">
-        <v>148.7510362063069</v>
+        <v>148.7836324493294</v>
       </c>
     </row>
   </sheetData>
@@ -20382,55 +20382,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.75697413371338</v>
+        <v>57.7639024704369</v>
       </c>
       <c r="D2">
-        <v>57.7574429697649</v>
+        <v>57.76437137915505</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.4600456367767</v>
+        <v>333.5000464075003</v>
       </c>
       <c r="G2">
-        <v>333.4627524629822</v>
+        <v>333.5027536532468</v>
       </c>
       <c r="H2">
-        <v>0.0109422858176125</v>
+        <v>0.01094228581761251</v>
       </c>
       <c r="I2">
         <v>0.1094383951790285</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714032</v>
+        <v>0.01094540889714031</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843078</v>
+        <v>0.01094540908575296</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.1094540867823191</v>
       </c>
       <c r="N2">
-        <v>0.6352832788558697</v>
+        <v>0.6353594852484293</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6352832788718618</v>
+        <v>0.6353594852644181</v>
       </c>
       <c r="Q2">
-        <v>0.0002684895316440292</v>
+        <v>0.0002684801245223937</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9997315095325</v>
+        <v>-179.9997315189393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -20474,22 +20474,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6804131920990075</v>
+        <v>0.6957457774088057</v>
       </c>
       <c r="O3">
-        <v>0.05199959250367046</v>
+        <v>0.06933278905972882</v>
       </c>
       <c r="P3">
-        <v>0.6812009739941836</v>
+        <v>0.6967729592216901</v>
       </c>
       <c r="Q3">
-        <v>2.251485869778103</v>
+        <v>2.936272217002481</v>
       </c>
       <c r="R3">
-        <v>-89.06948421766732</v>
+        <v>-89.06949331474343</v>
       </c>
       <c r="S3">
-        <v>177.8747097319586</v>
+        <v>177.2290831232458</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -20533,22 +20533,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7303857880862558</v>
+        <v>0.7457818688671375</v>
       </c>
       <c r="O4">
-        <v>0.1004684221297825</v>
+        <v>0.1175438021250079</v>
       </c>
       <c r="P4">
-        <v>0.7153874531005657</v>
+        <v>0.7313421889447912</v>
       </c>
       <c r="Q4">
-        <v>2.725235972987273</v>
+        <v>3.354345916126552</v>
       </c>
       <c r="R4">
-        <v>-99.78000696157183</v>
+        <v>-98.20960747140644</v>
       </c>
       <c r="S4">
-        <v>174.8447363960117</v>
+        <v>174.2947938002729</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -20592,22 +20592,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7137229653603806</v>
+        <v>0.729098960271789</v>
       </c>
       <c r="O5">
-        <v>0.08407191675177687</v>
+        <v>0.1012466013898753</v>
       </c>
       <c r="P5">
-        <v>0.7037768802499195</v>
+        <v>0.7196128264051749</v>
       </c>
       <c r="Q5">
-        <v>2.574691009944476</v>
+        <v>3.221364254614299</v>
       </c>
       <c r="R5">
-        <v>-97.58410505900042</v>
+        <v>-96.13163083834291</v>
       </c>
       <c r="S5">
-        <v>175.8219206121777</v>
+        <v>175.2414755149926</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -20651,22 +20651,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7303857867874566</v>
+        <v>0.7457818675885938</v>
       </c>
       <c r="O6">
-        <v>0.100468422844355</v>
+        <v>0.117543802916776</v>
       </c>
       <c r="P6">
-        <v>0.7153874549125279</v>
+        <v>0.7313421907102302</v>
       </c>
       <c r="Q6">
-        <v>2.725236111247746</v>
+        <v>3.354346048511101</v>
       </c>
       <c r="R6">
-        <v>-99.78000501754454</v>
+        <v>-98.20960584474027</v>
       </c>
       <c r="S6">
-        <v>174.8447364425183</v>
+        <v>174.2947938444205</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -20710,22 +20710,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7470534262108435</v>
+        <v>0.7624686170561075</v>
       </c>
       <c r="O7">
-        <v>0.1169710311290637</v>
+        <v>0.1339578972094809</v>
       </c>
       <c r="P7">
-        <v>0.7271994382601517</v>
+        <v>0.7432648779474773</v>
       </c>
       <c r="Q7">
-        <v>2.869064440288964</v>
+        <v>3.481507796429444</v>
       </c>
       <c r="R7">
-        <v>-101.3581030124927</v>
+        <v>-99.78001127896863</v>
       </c>
       <c r="S7">
-        <v>173.899029555411</v>
+        <v>173.3782399282145</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -20769,22 +20769,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7637255698092987</v>
+        <v>0.7791589634220857</v>
       </c>
       <c r="O8">
-        <v>0.1335404107926854</v>
+        <v>0.1504506291682324</v>
       </c>
       <c r="P8">
-        <v>0.7392031727982483</v>
+        <v>0.7553717316643518</v>
       </c>
       <c r="Q8">
-        <v>3.006613855785516</v>
+        <v>3.603222076175316</v>
       </c>
       <c r="R8">
-        <v>-102.5453140738749</v>
+        <v>-101.0068771997602</v>
       </c>
       <c r="S8">
-        <v>172.9837941536396</v>
+        <v>172.4908453568856</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -20828,22 +20828,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7470534246199411</v>
+        <v>0.7624686154876374</v>
       </c>
       <c r="O9">
-        <v>0.1169710322185104</v>
+        <v>0.133957898398205</v>
       </c>
       <c r="P9">
-        <v>0.7271994406727917</v>
+        <v>0.7432648802974681</v>
       </c>
       <c r="Q9">
-        <v>2.8690645930082</v>
+        <v>3.481507941301245</v>
       </c>
       <c r="R9">
-        <v>-101.3581008509081</v>
+        <v>-99.780009437928</v>
       </c>
       <c r="S9">
-        <v>173.8990295735036</v>
+        <v>173.3782399435385</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -20887,22 +20887,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7470534235593396</v>
+        <v>0.7624686144419908</v>
       </c>
       <c r="O10">
-        <v>0.116971032944808</v>
+        <v>0.1339578991906878</v>
       </c>
       <c r="P10">
-        <v>0.7271994422812184</v>
+        <v>0.7432648818641286</v>
       </c>
       <c r="Q10">
-        <v>2.869064694821012</v>
+        <v>3.481508037882441</v>
       </c>
       <c r="R10">
-        <v>-101.3580994098518</v>
+        <v>-99.78000821056756</v>
       </c>
       <c r="S10">
-        <v>173.8990295855652</v>
+        <v>173.3782399537546</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -20946,22 +20946,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7470534230290388</v>
+        <v>0.7624686139191673</v>
       </c>
       <c r="O11">
-        <v>0.116971033307957</v>
+        <v>0.1339578995869292</v>
       </c>
       <c r="P11">
-        <v>0.7271994430854317</v>
+        <v>0.743264882647459</v>
       </c>
       <c r="Q11">
-        <v>2.869064745727426</v>
+        <v>3.481508086173044</v>
       </c>
       <c r="R11">
-        <v>-101.3580986893236</v>
+        <v>-99.78000759688736</v>
       </c>
       <c r="S11">
-        <v>173.8990295915961</v>
+        <v>173.3782399588626</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -21005,22 +21005,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6970653101808325</v>
+        <v>0.712420167716298</v>
       </c>
       <c r="O12">
-        <v>0.06785846555058053</v>
+        <v>0.08513344706769546</v>
       </c>
       <c r="P12">
-        <v>0.6923778423433903</v>
+        <v>0.7080863879707635</v>
       </c>
       <c r="Q12">
-        <v>2.416949302935985</v>
+        <v>3.082154734967595</v>
       </c>
       <c r="R12">
-        <v>-94.33200456342981</v>
+        <v>-93.26200484560631</v>
       </c>
       <c r="S12">
-        <v>176.8315825406287</v>
+        <v>176.2192521338476</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -21064,22 +21064,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6804131905908756</v>
+        <v>0.7290989666948346</v>
       </c>
       <c r="O13">
-        <v>0.0519995947385597</v>
+        <v>0.1012465952677299</v>
       </c>
       <c r="P13">
-        <v>0.6812009767161795</v>
+        <v>0.7196128161868323</v>
       </c>
       <c r="Q13">
-        <v>2.251486060532315</v>
+        <v>3.221363564332596</v>
       </c>
       <c r="R13">
-        <v>-89.06947949562051</v>
+        <v>-96.13164099658357</v>
       </c>
       <c r="S13">
-        <v>177.8747097437625</v>
+        <v>175.2414754149352</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -21123,22 +21123,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6970653085391531</v>
+        <v>0.7124201661027726</v>
       </c>
       <c r="O14">
-        <v>0.06785846725689147</v>
+        <v>0.08513344882794802</v>
       </c>
       <c r="P14">
-        <v>0.6923778449862926</v>
+        <v>0.7080863905472237</v>
       </c>
       <c r="Q14">
-        <v>2.416949490040586</v>
+        <v>3.082154913108065</v>
       </c>
       <c r="R14">
-        <v>-94.33200073524479</v>
+        <v>-93.26200186594946</v>
       </c>
       <c r="S14">
-        <v>176.8315825660925</v>
+        <v>176.219252157009</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -21182,22 +21182,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6970653074007012</v>
+        <v>0.7124201649828541</v>
       </c>
       <c r="O15">
-        <v>0.06785846834584307</v>
+        <v>0.08513344995283939</v>
       </c>
       <c r="P15">
-        <v>0.692377846705814</v>
+        <v>0.708086392222198</v>
       </c>
       <c r="Q15">
-        <v>2.416949613077928</v>
+        <v>3.082155030247175</v>
       </c>
       <c r="R15">
-        <v>-94.3319981844916</v>
+        <v>-93.26199987999367</v>
       </c>
       <c r="S15">
-        <v>176.8315825850343</v>
+        <v>176.2192521743354</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -21241,22 +21241,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6970653106901089</v>
+        <v>0.7124201682164993</v>
       </c>
       <c r="O16">
-        <v>0.06785846495739174</v>
+        <v>0.08513344645726455</v>
       </c>
       <c r="P16">
-        <v>0.6923778414618738</v>
+        <v>0.7080863871108999</v>
       </c>
       <c r="Q16">
-        <v>2.416949242744514</v>
+        <v>3.082154677752543</v>
       </c>
       <c r="R16">
-        <v>-94.33200580629995</v>
+        <v>-93.26200581206642</v>
       </c>
       <c r="S16">
-        <v>176.8315825359704</v>
+        <v>176.2192521298711</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -21300,22 +21300,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6804131910935862</v>
+        <v>0.7124201682050383</v>
       </c>
       <c r="O17">
-        <v>0.05199959399359649</v>
+        <v>0.08513344644627188</v>
       </c>
       <c r="P17">
-        <v>0.6812009758088476</v>
+        <v>0.7080863871030483</v>
       </c>
       <c r="Q17">
-        <v>2.251485996947575</v>
+        <v>3.082154677654654</v>
       </c>
       <c r="R17">
-        <v>-89.069481069636</v>
+        <v>-93.26200580972321</v>
       </c>
       <c r="S17">
-        <v>177.8747097398279</v>
+        <v>176.2192521305545</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7137229676290336</v>
+        <v>0.7290989625045416</v>
       </c>
       <c r="O18">
-        <v>0.08407191492014042</v>
+        <v>0.1012465994383742</v>
       </c>
       <c r="P18">
-        <v>0.7037768768194779</v>
+        <v>0.7196128230630215</v>
       </c>
       <c r="Q18">
-        <v>2.574690769110665</v>
+        <v>3.221364025268429</v>
       </c>
       <c r="R18">
-        <v>-97.58410925424056</v>
+        <v>-96.13163423768539</v>
       </c>
       <c r="S18">
-        <v>175.82192056998</v>
+        <v>175.2414754763482</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -21418,22 +21418,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7303857901786005</v>
+        <v>0.7457818709275537</v>
       </c>
       <c r="O19">
-        <v>0.1004684204527195</v>
+        <v>0.1175438003181624</v>
       </c>
       <c r="P19">
-        <v>0.7153874497808734</v>
+        <v>0.7313421857097133</v>
       </c>
       <c r="Q19">
-        <v>2.725235757538309</v>
+        <v>3.354345711591606</v>
       </c>
       <c r="R19">
-        <v>-99.78001033957467</v>
+        <v>-98.20961028563579</v>
       </c>
       <c r="S19">
-        <v>174.8447363732297</v>
+        <v>174.2947937809022</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -21477,22 +21477,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7303857886093421</v>
+        <v>0.7457818693822417</v>
       </c>
       <c r="O20">
-        <v>0.1004684217105169</v>
+        <v>0.1175438016732966</v>
       </c>
       <c r="P20">
-        <v>0.7153874522706426</v>
+        <v>0.7313421881360218</v>
       </c>
       <c r="Q20">
-        <v>2.725235919125043</v>
+        <v>3.354345864992823</v>
       </c>
       <c r="R20">
-        <v>-99.78000780607258</v>
+        <v>-98.20960817496379</v>
       </c>
       <c r="S20">
-        <v>174.8447363903163</v>
+        <v>174.2947937954302</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -21536,22 +21536,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7303857880862558</v>
+        <v>0.7457818688671375</v>
       </c>
       <c r="O21">
-        <v>0.1004684221297825</v>
+        <v>0.1175438021250079</v>
       </c>
       <c r="P21">
-        <v>0.7153874531005657</v>
+        <v>0.7313421889447914</v>
       </c>
       <c r="Q21">
-        <v>2.725235972987271</v>
+        <v>3.354345916126555</v>
       </c>
       <c r="R21">
-        <v>-99.78000696157176</v>
+        <v>-98.20960747140644</v>
       </c>
       <c r="S21">
-        <v>174.8447363960117</v>
+        <v>174.2947938002729</v>
       </c>
     </row>
   </sheetData>
@@ -21634,19 +21634,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.75697403070647</v>
+        <v>57.7639023674168</v>
       </c>
       <c r="D2">
-        <v>57.7574420329007</v>
+        <v>57.76437044217761</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.460045042066</v>
+        <v>333.5000458127136</v>
       </c>
       <c r="G2">
-        <v>333.4627470539943</v>
+        <v>333.5027482436051</v>
       </c>
       <c r="H2">
         <v>0.01094228914518902</v>
@@ -21655,34 +21655,34 @@
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.0109454088971403</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843073</v>
+        <v>0.0109454090857529</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.109454086782319</v>
       </c>
       <c r="N2">
-        <v>0.6352832902935051</v>
+        <v>0.6353594966874276</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6352832903094969</v>
+        <v>0.6353594967034164</v>
       </c>
       <c r="Q2">
-        <v>0.0002680118967533749</v>
+        <v>0.0002680024896495313</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9997319871674</v>
+        <v>-179.9997319965742</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -21726,22 +21726,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6825866292765261</v>
+        <v>0.6986627588821356</v>
       </c>
       <c r="O3">
-        <v>0.05447576356919796</v>
+        <v>0.07263435043526664</v>
       </c>
       <c r="P3">
-        <v>0.6834092782505214</v>
+        <v>0.69973433207665</v>
       </c>
       <c r="Q3">
-        <v>2.351231563817022</v>
+        <v>3.063358260684233</v>
       </c>
       <c r="R3">
-        <v>-89.06948421847684</v>
+        <v>-89.06949331535236</v>
       </c>
       <c r="S3">
-        <v>177.7806415326516</v>
+        <v>177.1093084484857</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -21785,22 +21785,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7325688768552029</v>
+        <v>0.7487099215917086</v>
       </c>
       <c r="O4">
-        <v>0.1029024840324756</v>
+        <v>0.120804581424979</v>
       </c>
       <c r="P4">
-        <v>0.7176517605729779</v>
+        <v>0.7343741993903173</v>
       </c>
       <c r="Q4">
-        <v>2.816768089007795</v>
+        <v>3.471305932765552</v>
       </c>
       <c r="R4">
-        <v>-99.52377423513489</v>
+        <v>-97.96086762330569</v>
       </c>
       <c r="S4">
-        <v>174.7645972453488</v>
+        <v>174.1926397414293</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -21844,22 +21844,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.715903002770395</v>
+        <v>0.7320235075886641</v>
       </c>
       <c r="O5">
-        <v>0.08652157250697985</v>
+        <v>0.1045239032998625</v>
       </c>
       <c r="P5">
-        <v>0.7060238071876119</v>
+        <v>0.7226229015094726</v>
       </c>
       <c r="Q5">
-        <v>2.66881250532305</v>
+        <v>3.3415216827343</v>
       </c>
       <c r="R5">
-        <v>-97.34131933621968</v>
+        <v>-95.90912532933274</v>
       </c>
       <c r="S5">
-        <v>175.7373406116249</v>
+        <v>175.1337039721505</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -21903,22 +21903,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7325688755594282</v>
+        <v>0.7487099203168434</v>
       </c>
       <c r="O6">
-        <v>0.1029024847601749</v>
+        <v>0.1208045822281444</v>
       </c>
       <c r="P6">
-        <v>0.717651762378259</v>
+        <v>0.7343742011469921</v>
       </c>
       <c r="Q6">
-        <v>2.81676822642326</v>
+        <v>3.471306064055014</v>
       </c>
       <c r="R6">
-        <v>-99.52377234296394</v>
+        <v>-97.96086604677917</v>
       </c>
       <c r="S6">
-        <v>174.7645972915234</v>
+        <v>174.1926397851292</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -21962,22 +21962,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7492394165521865</v>
+        <v>0.7654000076541662</v>
       </c>
       <c r="O7">
-        <v>0.1193916310270644</v>
+        <v>0.1372033130753845</v>
       </c>
       <c r="P7">
-        <v>0.7294799426041618</v>
+        <v>0.7463173425070878</v>
       </c>
       <c r="Q7">
-        <v>2.958140788063643</v>
+        <v>3.595430929823603</v>
       </c>
       <c r="R7">
-        <v>-101.1051868954894</v>
+        <v>-99.52377868514618</v>
       </c>
       <c r="S7">
-        <v>173.8231349999347</v>
+        <v>173.281455511073</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -22021,22 +22021,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7659143225517637</v>
+        <v>0.782093535947634</v>
       </c>
       <c r="O8">
-        <v>0.1359496332952881</v>
+        <v>0.1536823090216471</v>
       </c>
       <c r="P8">
-        <v>0.741498763715169</v>
+        <v>0.7584432605525521</v>
       </c>
       <c r="Q8">
-        <v>3.093358233512951</v>
+        <v>3.71425733824998</v>
       </c>
       <c r="R8">
-        <v>-102.3021228001158</v>
+        <v>-100.7522765429708</v>
       </c>
       <c r="S8">
-        <v>172.9119532168871</v>
+        <v>172.3991898085324</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -22080,22 +22080,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7492394149646622</v>
+        <v>0.7654000060897372</v>
       </c>
       <c r="O9">
-        <v>0.1193916321331149</v>
+        <v>0.137203314279121</v>
       </c>
       <c r="P9">
-        <v>0.7294799450078172</v>
+        <v>0.7463173448452626</v>
       </c>
       <c r="Q9">
-        <v>2.958140939653215</v>
+        <v>3.595431073234024</v>
       </c>
       <c r="R9">
-        <v>-101.1051847853633</v>
+        <v>-99.52377689600047</v>
       </c>
       <c r="S9">
-        <v>173.8231350176387</v>
+        <v>173.2814555258709</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -22139,22 +22139,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7492394139063128</v>
+        <v>0.7654000050467845</v>
       </c>
       <c r="O10">
-        <v>0.1193916328704819</v>
+        <v>0.137203315081612</v>
       </c>
       <c r="P10">
-        <v>0.7294799466102544</v>
+        <v>0.7463173464040458</v>
       </c>
       <c r="Q10">
-        <v>2.95814104071293</v>
+        <v>3.595431168840968</v>
       </c>
       <c r="R10">
-        <v>-101.1051833786126</v>
+        <v>-99.52377570323661</v>
       </c>
       <c r="S10">
-        <v>173.8231350294413</v>
+        <v>173.2814555357362</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -22198,22 +22198,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7492394133771381</v>
+        <v>0.7654000045253083</v>
       </c>
       <c r="O11">
-        <v>0.1193916332391656</v>
+        <v>0.1372033154828576</v>
       </c>
       <c r="P11">
-        <v>0.7294799474114729</v>
+        <v>0.7463173471834375</v>
       </c>
       <c r="Q11">
-        <v>2.958141091242794</v>
+        <v>3.595431216644444</v>
       </c>
       <c r="R11">
-        <v>-101.1051826752372</v>
+        <v>-99.52377510685471</v>
       </c>
       <c r="S11">
-        <v>173.8231350353426</v>
+        <v>173.2814555406688</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -22257,22 +22257,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6992421347062352</v>
+        <v>0.7153410293017202</v>
       </c>
       <c r="O12">
-        <v>0.07032456606160691</v>
+        <v>0.08842650302523843</v>
       </c>
       <c r="P12">
-        <v>0.694606128288164</v>
+        <v>0.7110729506564603</v>
       </c>
       <c r="Q12">
-        <v>2.513804649111701</v>
+        <v>3.205682821847849</v>
       </c>
       <c r="R12">
-        <v>-94.14696808664098</v>
+        <v>-93.10560939439372</v>
       </c>
       <c r="S12">
-        <v>176.7423608002373</v>
+        <v>176.105608886413</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -22316,22 +22316,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6825866277727415</v>
+        <v>0.7320235139921862</v>
       </c>
       <c r="O13">
-        <v>0.05447576579897996</v>
+        <v>0.1045238971286101</v>
       </c>
       <c r="P13">
-        <v>0.6834092809631134</v>
+        <v>0.7226228913406895</v>
       </c>
       <c r="Q13">
-        <v>2.351231753225956</v>
+        <v>3.341520998923927</v>
       </c>
       <c r="R13">
-        <v>-89.06947972181162</v>
+        <v>-95.9091351245323</v>
       </c>
       <c r="S13">
-        <v>177.7806415442214</v>
+        <v>175.1337038740402</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -22375,22 +22375,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6992421330687745</v>
+        <v>0.7153410276932824</v>
       </c>
       <c r="O14">
-        <v>0.07032456777836744</v>
+        <v>0.08842650479173526</v>
       </c>
       <c r="P14">
-        <v>0.6946061309215396</v>
+        <v>0.7110729532203917</v>
       </c>
       <c r="Q14">
-        <v>2.513804834925631</v>
+        <v>3.205682998319845</v>
       </c>
       <c r="R14">
-        <v>-94.14696440586613</v>
+        <v>-93.10560653793807</v>
       </c>
       <c r="S14">
-        <v>176.7423608253837</v>
+        <v>176.1056089091291</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -22434,22 +22434,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6992421319331013</v>
+        <v>0.7153410265767121</v>
       </c>
       <c r="O15">
-        <v>0.07032456887428173</v>
+        <v>0.08842650592078773</v>
       </c>
       <c r="P15">
-        <v>0.6946061326346716</v>
+        <v>0.7110729548869674</v>
       </c>
       <c r="Q15">
-        <v>2.513804957114024</v>
+        <v>3.205683114360878</v>
       </c>
       <c r="R15">
-        <v>-94.14696195321174</v>
+        <v>-93.10560463401248</v>
       </c>
       <c r="S15">
-        <v>176.7423608441023</v>
+        <v>176.105608926144</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -22493,22 +22493,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.69924213521415</v>
+        <v>0.715341029800284</v>
       </c>
       <c r="O16">
-        <v>0.0703245654650618</v>
+        <v>0.08842650241283483</v>
       </c>
       <c r="P16">
-        <v>0.6946061274097513</v>
+        <v>0.7110729498006809</v>
       </c>
       <c r="Q16">
-        <v>2.513804589348906</v>
+        <v>3.205682765186618</v>
       </c>
       <c r="R16">
-        <v>-94.1469692814741</v>
+        <v>-93.1056103207415</v>
       </c>
       <c r="S16">
-        <v>176.7423607956724</v>
+        <v>176.105608882569</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.682586628274003</v>
+        <v>0.7153410297888204</v>
       </c>
       <c r="O17">
-        <v>0.05447576505571924</v>
+        <v>0.08842650240185133</v>
       </c>
       <c r="P17">
-        <v>0.683409280058916</v>
+        <v>0.7110729497928129</v>
       </c>
       <c r="Q17">
-        <v>2.351231690089639</v>
+        <v>3.20568276509109</v>
       </c>
       <c r="R17">
-        <v>-89.06948122069998</v>
+        <v>-93.10561031846608</v>
       </c>
       <c r="S17">
-        <v>177.7806415403648</v>
+        <v>176.1056088832483</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -22611,22 +22611,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7159030050336649</v>
+        <v>0.7320235098149289</v>
       </c>
       <c r="O18">
-        <v>0.08652157065405323</v>
+        <v>0.1045239013319013</v>
       </c>
       <c r="P18">
-        <v>0.7060238037698351</v>
+        <v>0.7226228981839641</v>
       </c>
       <c r="Q18">
-        <v>2.668812266142647</v>
+        <v>3.341521455527553</v>
       </c>
       <c r="R18">
-        <v>-97.34132339793054</v>
+        <v>-95.90912860743552</v>
       </c>
       <c r="S18">
-        <v>175.7373405699219</v>
+        <v>175.1337039341867</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -22670,22 +22670,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.732568878942746</v>
+        <v>0.7487099236463692</v>
       </c>
       <c r="O19">
-        <v>0.1029024823331652</v>
+        <v>0.1208045795992495</v>
       </c>
       <c r="P19">
-        <v>0.7176517572654189</v>
+        <v>0.7343741961711981</v>
       </c>
       <c r="Q19">
-        <v>2.8167678751302</v>
+        <v>3.471305730262471</v>
       </c>
       <c r="R19">
-        <v>-99.52377752088042</v>
+        <v>-97.96087034865235</v>
       </c>
       <c r="S19">
-        <v>174.7645972230428</v>
+        <v>174.1926397227104</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -22729,22 +22729,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7325688773770888</v>
+        <v>0.7487099221053739</v>
       </c>
       <c r="O20">
-        <v>0.1029024836076481</v>
+        <v>0.1208045809685467</v>
       </c>
       <c r="P20">
-        <v>0.7176517597460882</v>
+        <v>0.7343741985855375</v>
       </c>
       <c r="Q20">
-        <v>2.816768035538403</v>
+        <v>3.471305882139798</v>
       </c>
       <c r="R20">
-        <v>-99.52377505657137</v>
+        <v>-97.96086830464236</v>
       </c>
       <c r="S20">
-        <v>174.7645972397723</v>
+        <v>174.1926397367496</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -22788,22 +22788,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7325688768552029</v>
+        <v>0.7487099215917088</v>
       </c>
       <c r="O21">
-        <v>0.1029024840324754</v>
+        <v>0.1208045814249788</v>
       </c>
       <c r="P21">
-        <v>0.7176517605729779</v>
+        <v>0.7343741993903171</v>
       </c>
       <c r="Q21">
-        <v>2.816768089007789</v>
+        <v>3.471305932765553</v>
       </c>
       <c r="R21">
-        <v>-99.52377423513494</v>
+        <v>-97.9608676233057</v>
       </c>
       <c r="S21">
-        <v>174.7645972453488</v>
+        <v>174.1926397414293</v>
       </c>
     </row>
   </sheetData>
@@ -22886,55 +22886,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.887739292695603</v>
+        <v>0.8878457830169895</v>
       </c>
       <c r="D2">
-        <v>0.8877386655133598</v>
+        <v>0.8878451557655065</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.125365196080145</v>
+        <v>5.12598001823733</v>
       </c>
       <c r="G2">
-        <v>5.125361575041775</v>
+        <v>5.125976396799205</v>
       </c>
       <c r="H2">
-        <v>0.0109422858176125</v>
+        <v>0.01094228581761251</v>
       </c>
       <c r="I2">
         <v>0.1094383951790285</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714032</v>
+        <v>0.01094540889714031</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843078</v>
+        <v>0.01094540908575296</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.1094540867823191</v>
       </c>
       <c r="N2">
-        <v>1.096891611384333</v>
+        <v>1.097023190937478</v>
       </c>
       <c r="O2">
-        <v>1.087253422746864</v>
+        <v>1.08738384613921</v>
       </c>
       <c r="P2">
-        <v>1.090745085170538</v>
+        <v>1.090875927413705</v>
       </c>
       <c r="Q2">
-        <v>29.52465640812326</v>
+        <v>29.52465640805125</v>
       </c>
       <c r="R2">
-        <v>-90.55768087615328</v>
+        <v>-90.5576808759302</v>
       </c>
       <c r="S2">
-        <v>149.9221292256711</v>
+        <v>149.922129225516</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -22978,22 +22978,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.148876169925613</v>
+        <v>1.166336231807972</v>
       </c>
       <c r="O3">
-        <v>1.139236188411946</v>
+        <v>1.156694534820466</v>
       </c>
       <c r="P3">
-        <v>1.142736903687505</v>
+        <v>1.16019850526563</v>
       </c>
       <c r="Q3">
-        <v>29.58827568502142</v>
+        <v>29.608212279729</v>
       </c>
       <c r="R3">
-        <v>-90.4897661150198</v>
+        <v>-90.46849459722671</v>
       </c>
       <c r="S3">
-        <v>149.9680075708631</v>
+        <v>149.9823796945496</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -23037,22 +23037,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.196148226119311</v>
+        <v>1.213600551629735</v>
       </c>
       <c r="O4">
-        <v>1.186532235200671</v>
+        <v>1.203982460405331</v>
       </c>
       <c r="P4">
-        <v>1.189896794186132</v>
+        <v>1.207352139265548</v>
       </c>
       <c r="Q4">
-        <v>28.74652570173037</v>
+        <v>28.77779353268606</v>
       </c>
       <c r="R4">
-        <v>-91.33523643514292</v>
+        <v>-91.30254338807522</v>
       </c>
       <c r="S4">
-        <v>149.1068071253316</v>
+        <v>149.1330711684455</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -23096,22 +23096,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.180362954276656</v>
+        <v>1.197818197559753</v>
       </c>
       <c r="O5">
-        <v>1.170738952293245</v>
+        <v>1.188192223018596</v>
       </c>
       <c r="P5">
-        <v>1.174147760816496</v>
+        <v>1.191605562228713</v>
       </c>
       <c r="Q5">
-        <v>29.0196155390004</v>
+        <v>29.04731610791556</v>
       </c>
       <c r="R5">
-        <v>-91.06100532621697</v>
+        <v>-91.03190558454288</v>
       </c>
       <c r="S5">
-        <v>149.3861849058507</v>
+        <v>149.4087032599757</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -23155,22 +23155,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.196148225864306</v>
+        <v>1.213600551352653</v>
       </c>
       <c r="O6">
-        <v>1.186532234953866</v>
+        <v>1.203982460136541</v>
       </c>
       <c r="P6">
-        <v>1.189896793961816</v>
+        <v>1.20735213901884</v>
       </c>
       <c r="Q6">
-        <v>28.74652571268008</v>
+        <v>28.77779354117661</v>
       </c>
       <c r="R6">
-        <v>-91.33523642273198</v>
+        <v>-91.30254337816547</v>
       </c>
       <c r="S6">
-        <v>149.1068071367425</v>
+        <v>149.1330711773828</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -23214,22 +23214,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.211959963166082</v>
+        <v>1.229409070155643</v>
       </c>
       <c r="O7">
-        <v>1.202351984425829</v>
+        <v>1.219798864370867</v>
       </c>
       <c r="P7">
-        <v>1.205673378670227</v>
+        <v>1.223125937499909</v>
       </c>
       <c r="Q7">
-        <v>28.48055566868733</v>
+        <v>28.5151966769748</v>
       </c>
       <c r="R7">
-        <v>-91.60225719646247</v>
+        <v>-91.56616852378068</v>
       </c>
       <c r="S7">
-        <v>148.8347345221217</v>
+        <v>148.8645422872569</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -23273,22 +23273,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.227797144066176</v>
+        <v>1.245242757868355</v>
       </c>
       <c r="O8">
-        <v>1.218197169957742</v>
+        <v>1.235640431282349</v>
       </c>
       <c r="P8">
-        <v>1.221476447703732</v>
+        <v>1.238925918288788</v>
       </c>
       <c r="Q8">
-        <v>28.22144160506642</v>
+        <v>28.25927259728988</v>
       </c>
       <c r="R8">
-        <v>-91.8623371546626</v>
+        <v>-91.8230393363086</v>
       </c>
       <c r="S8">
-        <v>148.5696960594272</v>
+        <v>148.6028568790038</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -23332,22 +23332,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.21195996281405</v>
+        <v>1.2294090697704</v>
       </c>
       <c r="O9">
-        <v>1.202351984086968</v>
+        <v>1.219798863998918</v>
       </c>
       <c r="P9">
-        <v>1.20567337835953</v>
+        <v>1.223125937155601</v>
       </c>
       <c r="Q9">
-        <v>28.48055564962255</v>
+        <v>28.51519665476558</v>
       </c>
       <c r="R9">
-        <v>-91.60225721364328</v>
+        <v>-91.56616854415961</v>
       </c>
       <c r="S9">
-        <v>148.8347345035548</v>
+        <v>148.8645422655295</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -23391,22 +23391,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.211959962579362</v>
+        <v>1.229409069513572</v>
       </c>
       <c r="O10">
-        <v>1.202351983861061</v>
+        <v>1.219798863750952</v>
       </c>
       <c r="P10">
-        <v>1.205673378152399</v>
+        <v>1.223125936926061</v>
       </c>
       <c r="Q10">
-        <v>28.48055563691268</v>
+        <v>28.51519663995943</v>
       </c>
       <c r="R10">
-        <v>-91.60225722509716</v>
+        <v>-91.56616855774556</v>
       </c>
       <c r="S10">
-        <v>148.8347344911769</v>
+        <v>148.8645422510445</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -23450,22 +23450,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.211959962462018</v>
+        <v>1.229409069385158</v>
       </c>
       <c r="O11">
-        <v>1.202351983748107</v>
+        <v>1.219798863626969</v>
       </c>
       <c r="P11">
-        <v>1.205673378048833</v>
+        <v>1.223125936811292</v>
       </c>
       <c r="Q11">
-        <v>28.48055563055775</v>
+        <v>28.51519663255636</v>
       </c>
       <c r="R11">
-        <v>-91.60225723082411</v>
+        <v>-91.56616856453854</v>
       </c>
       <c r="S11">
-        <v>148.8347344849879</v>
+        <v>148.864542243802</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -23509,22 +23509,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.164605225018565</v>
+        <v>1.182063057314653</v>
       </c>
       <c r="O12">
-        <v>1.15497322260758</v>
+        <v>1.172429210756797</v>
       </c>
       <c r="P12">
-        <v>1.158427403320452</v>
+        <v>1.175887301163169</v>
       </c>
       <c r="Q12">
-        <v>29.30010199822785</v>
+        <v>29.32402962499481</v>
       </c>
       <c r="R12">
-        <v>-90.77928094490778</v>
+        <v>-90.75398412032018</v>
       </c>
       <c r="S12">
-        <v>149.6731522193098</v>
+        <v>149.6917108896985</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -23568,22 +23568,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.148876169792142</v>
+        <v>1.197818198741577</v>
       </c>
       <c r="O13">
-        <v>1.139236188292153</v>
+        <v>1.188192224147166</v>
       </c>
       <c r="P13">
-        <v>1.142736903596827</v>
+        <v>1.191605563240167</v>
       </c>
       <c r="Q13">
-        <v>29.5882756757739</v>
+        <v>29.04731614862428</v>
       </c>
       <c r="R13">
-        <v>-90.48976612219272</v>
+        <v>-91.03190555174241</v>
       </c>
       <c r="S13">
-        <v>149.9680075620876</v>
+        <v>149.4087032986244</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.164605224764089</v>
+        <v>1.182063057026127</v>
       </c>
       <c r="O14">
-        <v>1.154973222366473</v>
+        <v>1.172429210481758</v>
       </c>
       <c r="P14">
-        <v>1.15842740310919</v>
+        <v>1.17588730091741</v>
       </c>
       <c r="Q14">
-        <v>29.30010199248264</v>
+        <v>29.32402961580039</v>
       </c>
       <c r="R14">
-        <v>-90.77928094858252</v>
+        <v>-90.7539841275053</v>
       </c>
       <c r="S14">
-        <v>149.6731522140979</v>
+        <v>149.6917108810202</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -23686,22 +23686,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.164605224545846</v>
+        <v>1.182063056785186</v>
       </c>
       <c r="O15">
-        <v>1.154973222157141</v>
+        <v>1.172429210249805</v>
       </c>
       <c r="P15">
-        <v>1.158427402919767</v>
+        <v>1.175887300704989</v>
       </c>
       <c r="Q15">
-        <v>29.30010198872426</v>
+        <v>29.32402960974246</v>
       </c>
       <c r="R15">
-        <v>-90.77928095096333</v>
+        <v>-90.75398413222635</v>
       </c>
       <c r="S15">
-        <v>149.6731522107111</v>
+        <v>149.691710875322</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -23745,22 +23745,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.164605225081513</v>
+        <v>1.182063057388968</v>
       </c>
       <c r="O16">
-        <v>1.154973222666015</v>
+        <v>1.172429210826561</v>
       </c>
       <c r="P16">
-        <v>1.158427403369262</v>
+        <v>1.175887301223491</v>
       </c>
       <c r="Q16">
-        <v>29.30010200214926</v>
+        <v>29.32402963003677</v>
       </c>
       <c r="R16">
-        <v>-90.77928094166131</v>
+        <v>-90.75398411593321</v>
       </c>
       <c r="S16">
-        <v>149.6731522230712</v>
+        <v>149.6917108945855</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -23804,22 +23804,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.148876169836632</v>
+        <v>1.182063057378146</v>
       </c>
       <c r="O17">
-        <v>1.139236188332084</v>
+        <v>1.172429210815733</v>
       </c>
       <c r="P17">
-        <v>1.142736903627053</v>
+        <v>1.175887301212694</v>
       </c>
       <c r="Q17">
-        <v>29.58827567885641</v>
+        <v>29.32402963022954</v>
       </c>
       <c r="R17">
-        <v>-90.48976611980174</v>
+        <v>-90.75398411573957</v>
       </c>
       <c r="S17">
-        <v>149.9680075650128</v>
+        <v>149.6917108947827</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -23863,22 +23863,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.180362954712388</v>
+        <v>1.197818198040423</v>
       </c>
       <c r="O18">
-        <v>1.17073895271143</v>
+        <v>1.188192223481558</v>
       </c>
       <c r="P18">
-        <v>1.17414776119465</v>
+        <v>1.191605562652394</v>
       </c>
       <c r="Q18">
-        <v>29.01961554652043</v>
+        <v>29.04731611998324</v>
       </c>
       <c r="R18">
-        <v>-91.06100532141879</v>
+        <v>-91.03190557511766</v>
       </c>
       <c r="S18">
-        <v>149.3861849126261</v>
+        <v>149.4087032713226</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -23922,22 +23922,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.196148226516789</v>
+        <v>1.21360055207187</v>
       </c>
       <c r="O19">
-        <v>1.186532235580434</v>
+        <v>1.203982460829591</v>
       </c>
       <c r="P19">
-        <v>1.189896794528026</v>
+        <v>1.20735213965265</v>
       </c>
       <c r="Q19">
-        <v>28.74652572396037</v>
+        <v>28.77779355920265</v>
       </c>
       <c r="R19">
-        <v>-91.33523641548561</v>
+        <v>-91.30254336405712</v>
       </c>
       <c r="S19">
-        <v>149.1068071469042</v>
+        <v>149.133071194326</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -23981,22 +23981,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.19614822621868</v>
+        <v>1.213600551740269</v>
       </c>
       <c r="O20">
-        <v>1.186532235295611</v>
+        <v>1.203982460511396</v>
       </c>
       <c r="P20">
-        <v>1.189896794271606</v>
+        <v>1.207352139362324</v>
       </c>
       <c r="Q20">
-        <v>28.74652570728787</v>
+        <v>28.77779353931521</v>
       </c>
       <c r="R20">
-        <v>-91.33523643022859</v>
+        <v>-91.3025433820707</v>
       </c>
       <c r="S20">
-        <v>149.1068071307247</v>
+        <v>149.1330711749156</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -24040,22 +24040,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.196148226119311</v>
+        <v>1.213600551629735</v>
       </c>
       <c r="O21">
-        <v>1.186532235200671</v>
+        <v>1.203982460405331</v>
       </c>
       <c r="P21">
-        <v>1.189896794186132</v>
+        <v>1.207352139265548</v>
       </c>
       <c r="Q21">
-        <v>28.74652570173038</v>
+        <v>28.77779353268606</v>
       </c>
       <c r="R21">
-        <v>-91.33523643514292</v>
+        <v>-91.30254338807522</v>
       </c>
       <c r="S21">
-        <v>149.1068071253316</v>
+        <v>149.1330711684455</v>
       </c>
     </row>
   </sheetData>
@@ -24138,19 +24138,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8877392925079315</v>
+        <v>0.8878457828292828</v>
       </c>
       <c r="D2">
-        <v>0.8877386654382092</v>
+        <v>0.8878451556903342</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.125365194996622</v>
+        <v>5.125980017153605</v>
       </c>
       <c r="G2">
-        <v>5.125361574607893</v>
+        <v>5.125976396365196</v>
       </c>
       <c r="H2">
         <v>0.01094228914518902</v>
@@ -24159,34 +24159,34 @@
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.0109454088971403</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843073</v>
+        <v>0.0109454090857529</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.109454086782319</v>
       </c>
       <c r="N2">
-        <v>1.096891611387024</v>
+        <v>1.097023190940154</v>
       </c>
       <c r="O2">
-        <v>1.087253422746818</v>
+        <v>1.087383846139148</v>
       </c>
       <c r="P2">
-        <v>1.090745085170869</v>
+        <v>1.09087592741402</v>
       </c>
       <c r="Q2">
-        <v>29.52465640818426</v>
+        <v>29.52465640811226</v>
       </c>
       <c r="R2">
-        <v>-90.55768087615328</v>
+        <v>-90.55768087593019</v>
       </c>
       <c r="S2">
-        <v>149.9221292258262</v>
+        <v>149.9221292256711</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -24230,22 +24230,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.151351658750468</v>
+        <v>1.169636910825563</v>
       </c>
       <c r="O3">
-        <v>1.141711596220074</v>
+        <v>1.159995109328006</v>
       </c>
       <c r="P3">
-        <v>1.145212721969392</v>
+        <v>1.163499610396456</v>
       </c>
       <c r="Q3">
-        <v>29.59116187607757</v>
+        <v>29.61194411336592</v>
       </c>
       <c r="R3">
-        <v>-90.48668633886906</v>
+        <v>-90.46451347701756</v>
       </c>
       <c r="S3">
-        <v>149.9700883478418</v>
+        <v>149.9850696816404</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -24289,22 +24289,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.198622598017909</v>
+        <v>1.216899783696897</v>
       </c>
       <c r="O4">
-        <v>1.189006470331506</v>
+        <v>1.207281516000703</v>
       </c>
       <c r="P4">
-        <v>1.192371709535265</v>
+        <v>1.210652075167021</v>
       </c>
       <c r="Q4">
-        <v>28.7510361530392</v>
+        <v>28.78363236888297</v>
       </c>
       <c r="R4">
-        <v>-91.3305193540545</v>
+        <v>-91.2964384903547</v>
       </c>
       <c r="S4">
-        <v>149.1105934933313</v>
+        <v>149.1379718389594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -24348,22 +24348,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.182837746974456</v>
+        <v>1.201117975055474</v>
       </c>
       <c r="O5">
-        <v>1.173213626727432</v>
+        <v>1.19149184793598</v>
       </c>
       <c r="P5">
-        <v>1.176623030250051</v>
+        <v>1.194905956881054</v>
       </c>
       <c r="Q5">
-        <v>29.02361485735034</v>
+        <v>29.05249127575025</v>
       </c>
       <c r="R5">
-        <v>-91.05680313615568</v>
+        <v>-91.02646920347358</v>
       </c>
       <c r="S5">
-        <v>149.3894342651808</v>
+        <v>149.4129072515116</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -24407,22 +24407,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.198622597759779</v>
+        <v>1.216899783415637</v>
       </c>
       <c r="O6">
-        <v>1.189006470081588</v>
+        <v>1.207281515727751</v>
       </c>
       <c r="P6">
-        <v>1.192371709307778</v>
+        <v>1.210652074916075</v>
       </c>
       <c r="Q6">
-        <v>28.7510361636358</v>
+        <v>28.78363237691666</v>
       </c>
       <c r="R6">
-        <v>-91.33051934200277</v>
+        <v>-91.29643848090961</v>
       </c>
       <c r="S6">
-        <v>149.1105935043871</v>
+        <v>149.1379718474371</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -24466,22 +24466,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.214433871286104</v>
+        <v>1.232707700737579</v>
       </c>
       <c r="O7">
-        <v>1.204825737423094</v>
+        <v>1.223097294769707</v>
       </c>
       <c r="P7">
-        <v>1.208147892729889</v>
+        <v>1.226425353189394</v>
       </c>
       <c r="Q7">
-        <v>28.48554925136951</v>
+        <v>28.52166338972093</v>
       </c>
       <c r="R7">
-        <v>-91.59705374884254</v>
+        <v>-91.55943156119932</v>
       </c>
       <c r="S7">
-        <v>148.8390287484708</v>
+        <v>148.8701024013388</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -24525,22 +24525,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.230270549184736</v>
+        <v>1.24854073572612</v>
       </c>
       <c r="O8">
-        <v>1.220670401790656</v>
+        <v>1.238938185482561</v>
       </c>
       <c r="P8">
-        <v>1.22395051729328</v>
+        <v>1.242224757460433</v>
       </c>
       <c r="Q8">
-        <v>28.22689189894539</v>
+        <v>28.26633338597328</v>
       </c>
       <c r="R8">
-        <v>-91.85667423845149</v>
+        <v>-91.8157047133766</v>
       </c>
       <c r="S8">
-        <v>148.574470635025</v>
+        <v>148.6090412664696</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -24584,22 +24584,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.21443387092937</v>
+        <v>1.232707700346052</v>
       </c>
       <c r="O9">
-        <v>1.204825737079549</v>
+        <v>1.223097294391496</v>
       </c>
       <c r="P9">
-        <v>1.208147892414432</v>
+        <v>1.226425352838725</v>
       </c>
       <c r="Q9">
-        <v>28.48554923185328</v>
+        <v>28.52166336692741</v>
       </c>
       <c r="R9">
-        <v>-91.59705376648259</v>
+        <v>-91.55943158217248</v>
       </c>
       <c r="S9">
-        <v>148.83902872945</v>
+        <v>148.8701023790242</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -24643,22 +24643,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.214433870691547</v>
+        <v>1.232707700085033</v>
       </c>
       <c r="O10">
-        <v>1.204825736850519</v>
+        <v>1.223097294139355</v>
       </c>
       <c r="P10">
-        <v>1.208147892204127</v>
+        <v>1.226425352604946</v>
       </c>
       <c r="Q10">
-        <v>28.48554921884245</v>
+        <v>28.52166335173174</v>
       </c>
       <c r="R10">
-        <v>-91.59705377824264</v>
+        <v>-91.55943159615458</v>
       </c>
       <c r="S10">
-        <v>148.8390287167696</v>
+        <v>148.8701023641477</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -24702,22 +24702,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.214433870572636</v>
+        <v>1.232707699954525</v>
       </c>
       <c r="O11">
-        <v>1.204825736736004</v>
+        <v>1.223097294013285</v>
       </c>
       <c r="P11">
-        <v>1.208147892098975</v>
+        <v>1.226425352488056</v>
       </c>
       <c r="Q11">
-        <v>28.48554921233703</v>
+        <v>28.5216633441339</v>
       </c>
       <c r="R11">
-        <v>-91.59705378412265</v>
+        <v>-91.55943160314563</v>
       </c>
       <c r="S11">
-        <v>148.8390287104293</v>
+        <v>148.8701023567095</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.167080391498968</v>
+        <v>1.185363319012837</v>
       </c>
       <c r="O12">
-        <v>1.157448289427444</v>
+        <v>1.175729343888448</v>
       </c>
       <c r="P12">
-        <v>1.160902975308684</v>
+        <v>1.179188087574063</v>
       </c>
       <c r="Q12">
-        <v>29.30356049763491</v>
+        <v>29.32850321403705</v>
       </c>
       <c r="R12">
-        <v>-90.77562390403763</v>
+        <v>-90.74925488742255</v>
       </c>
       <c r="S12">
-        <v>149.6758336718542</v>
+        <v>149.695178769841</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -24820,22 +24820,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.15135165861212</v>
+        <v>1.201117976262813</v>
       </c>
       <c r="O13">
-        <v>1.141711596095419</v>
+        <v>1.191491849089977</v>
       </c>
       <c r="P13">
-        <v>1.145212721873772</v>
+        <v>1.194905957918353</v>
       </c>
       <c r="Q13">
-        <v>29.59116186633616</v>
+        <v>29.05249131898182</v>
       </c>
       <c r="R13">
-        <v>-90.48668634654486</v>
+        <v>-91.0264691681063</v>
       </c>
       <c r="S13">
-        <v>149.9700883385702</v>
+        <v>149.4129072926957</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.16708039123967</v>
+        <v>1.18536331871787</v>
       </c>
       <c r="O14">
-        <v>1.157448289181531</v>
+        <v>1.175729343606989</v>
       </c>
       <c r="P14">
-        <v>1.160902975092535</v>
+        <v>1.179188087321778</v>
       </c>
       <c r="Q14">
-        <v>29.30356049139428</v>
+        <v>29.32850320420209</v>
       </c>
       <c r="R14">
-        <v>-90.77562390821667</v>
+        <v>-90.74925489525953</v>
       </c>
       <c r="S14">
-        <v>149.6758336661443</v>
+        <v>149.6951787605191</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -24938,22 +24938,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.167080391018213</v>
+        <v>1.185363318472635</v>
       </c>
       <c r="O15">
-        <v>1.157448288968996</v>
+        <v>1.175729343370757</v>
       </c>
       <c r="P15">
-        <v>1.160902974899854</v>
+        <v>1.179188087105007</v>
       </c>
       <c r="Q15">
-        <v>29.30356048730561</v>
+        <v>29.32850319771711</v>
       </c>
       <c r="R15">
-        <v>-90.77562391093366</v>
+        <v>-90.74925490041512</v>
       </c>
       <c r="S15">
-        <v>149.6758336624255</v>
+        <v>149.6951787543916</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -24997,22 +24997,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.167080391563526</v>
+        <v>1.185363319089302</v>
       </c>
       <c r="O16">
-        <v>1.157448289487483</v>
+        <v>1.175729343960354</v>
       </c>
       <c r="P16">
-        <v>1.160902975359124</v>
+        <v>1.179188087636562</v>
       </c>
       <c r="Q16">
-        <v>29.30356050171727</v>
+        <v>29.32850321928709</v>
       </c>
       <c r="R16">
-        <v>-90.77562390062731</v>
+        <v>-90.74925488282381</v>
       </c>
       <c r="S16">
-        <v>149.6758336757772</v>
+        <v>149.6951787749371</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -25056,22 +25056,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.151351658658236</v>
+        <v>1.18536331907848</v>
       </c>
       <c r="O17">
-        <v>1.141711596136971</v>
+        <v>1.175729343949527</v>
       </c>
       <c r="P17">
-        <v>1.145212721905645</v>
+        <v>1.179188087625766</v>
       </c>
       <c r="Q17">
-        <v>29.5911618695833</v>
+        <v>29.32850321947938</v>
       </c>
       <c r="R17">
-        <v>-90.48668634398626</v>
+        <v>-90.74925488263065</v>
       </c>
       <c r="S17">
-        <v>149.9700883416607</v>
+        <v>149.6951787751338</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -25115,22 +25115,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.182837747416551</v>
+        <v>1.201117975544646</v>
       </c>
       <c r="O18">
-        <v>1.173213627151958</v>
+        <v>1.191491848407416</v>
       </c>
       <c r="P18">
-        <v>1.176623030634654</v>
+        <v>1.194905957313347</v>
       </c>
       <c r="Q18">
-        <v>29.02361486552348</v>
+        <v>29.05249128866262</v>
       </c>
       <c r="R18">
-        <v>-91.05680313069288</v>
+        <v>-91.02646919318899</v>
       </c>
       <c r="S18">
-        <v>149.3894342726128</v>
+        <v>149.4129072637075</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -25174,22 +25174,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.19862259842171</v>
+        <v>1.216899784147482</v>
       </c>
       <c r="O19">
-        <v>1.189006470717569</v>
+        <v>1.207281516433384</v>
       </c>
       <c r="P19">
-        <v>1.192371709883563</v>
+        <v>1.210652075562676</v>
       </c>
       <c r="Q19">
-        <v>28.75103617588471</v>
+        <v>28.78363239619592</v>
       </c>
       <c r="R19">
-        <v>-91.33051933377092</v>
+        <v>-91.29643846552651</v>
       </c>
       <c r="S19">
-        <v>149.1105935155226</v>
+        <v>149.1379718656402</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -25233,22 +25233,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.198622598118859</v>
+        <v>1.216899783809543</v>
       </c>
       <c r="O20">
-        <v>1.189006470428021</v>
+        <v>1.207281516108873</v>
       </c>
       <c r="P20">
-        <v>1.19237170962234</v>
+        <v>1.210652075265935</v>
       </c>
       <c r="Q20">
-        <v>28.75103615875058</v>
+        <v>28.78363237571121</v>
       </c>
       <c r="R20">
-        <v>-91.33051934898361</v>
+        <v>-91.29643848414766</v>
       </c>
       <c r="S20">
-        <v>149.1105934988792</v>
+        <v>149.1379718456296</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -25292,22 +25292,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.198622598017909</v>
+        <v>1.216899783696896</v>
       </c>
       <c r="O21">
-        <v>1.189006470331506</v>
+        <v>1.207281516000703</v>
       </c>
       <c r="P21">
-        <v>1.192371709535266</v>
+        <v>1.210652075167021</v>
       </c>
       <c r="Q21">
-        <v>28.7510361530392</v>
+        <v>28.78363236888297</v>
       </c>
       <c r="R21">
-        <v>-91.3305193540545</v>
+        <v>-91.2964384903547</v>
       </c>
       <c r="S21">
-        <v>149.1105934933314</v>
+        <v>149.1379718389594</v>
       </c>
     </row>
   </sheetData>
@@ -26603,10 +26603,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8877387022732526</v>
+        <v>0.8878451925264417</v>
       </c>
       <c r="C2">
-        <v>15.37608536182534</v>
+        <v>15.37792982711568</v>
       </c>
       <c r="D2">
         <v>0.01094540889423945</v>
@@ -26615,10 +26615,10 @@
         <v>0.1094540870674545</v>
       </c>
       <c r="F2">
-        <v>1.087253422744514</v>
+        <v>1.087383846135966</v>
       </c>
       <c r="G2">
-        <v>45.00000000001038</v>
+        <v>45.00000000001025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -26638,10 +26638,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.139236188092973</v>
+        <v>1.156694534394159</v>
       </c>
       <c r="G3">
-        <v>-0.489766201027473</v>
+        <v>-0.4684947101772657</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -26661,10 +26661,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.186532234033986</v>
+        <v>1.203982459138365</v>
       </c>
       <c r="G4">
-        <v>-1.335236586719037</v>
+        <v>-1.302543564639348</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -26684,10 +26684,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.170738951404811</v>
+        <v>1.188192222027656</v>
       </c>
       <c r="G5">
-        <v>-1.061005456395787</v>
+        <v>-1.031905740340572</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.186532233787181</v>
+        <v>1.203982458869574</v>
       </c>
       <c r="G6">
-        <v>-1.335236574308076</v>
+        <v>-1.30254355472958</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -26730,10 +26730,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.202351982985008</v>
+        <v>1.219798862831872</v>
       </c>
       <c r="G7">
-        <v>-1.602257368990595</v>
+        <v>-1.566168720685853</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -26753,10 +26753,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.218197168246757</v>
+        <v>1.235640429475189</v>
       </c>
       <c r="G8">
-        <v>-1.862337347707698</v>
+        <v>-1.823039553139066</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -26776,10 +26776,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.202351982646147</v>
+        <v>1.219798862459924</v>
       </c>
       <c r="G9">
-        <v>-1.602257386171407</v>
+        <v>-1.566168741064774</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -26799,10 +26799,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.202351982420239</v>
+        <v>1.219798862211958</v>
       </c>
       <c r="G10">
-        <v>-1.602257397625281</v>
+        <v>-1.566168754650721</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -26822,10 +26822,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.202351982307286</v>
+        <v>1.219798862087975</v>
       </c>
       <c r="G11">
-        <v>-1.602257403352218</v>
+        <v>-1.566168761443695</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -26845,10 +26845,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.154973222001665</v>
+        <v>1.172429210046028</v>
       </c>
       <c r="G12">
-        <v>-0.779281053233873</v>
+        <v>-0.753984254916548</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -26868,10 +26868,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.139236187973179</v>
+        <v>1.188192223156226</v>
       </c>
       <c r="G13">
-        <v>-0.4897662082003745</v>
+        <v>-1.031905707540135</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -26891,10 +26891,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.154973221760558</v>
+        <v>1.172429209770988</v>
       </c>
       <c r="G14">
-        <v>-0.7792810569086044</v>
+        <v>-0.7539842621016641</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.154973221551227</v>
+        <v>1.172429209539036</v>
       </c>
       <c r="G15">
-        <v>-0.7792810592893998</v>
+        <v>-0.7539842668226958</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.1549732220601</v>
+        <v>1.172429210115791</v>
       </c>
       <c r="G16">
-        <v>-0.7792810499874043</v>
+        <v>-0.7539842505295765</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.13923618801311</v>
+        <v>1.172429210104964</v>
       </c>
       <c r="G17">
-        <v>-0.4897662058094072</v>
+        <v>-0.7539842503359374</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.170738951822997</v>
+        <v>1.188192222490619</v>
       </c>
       <c r="G18">
-        <v>-1.06100545159763</v>
+        <v>-1.031905730915372</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27006,10 +27006,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.186532234413749</v>
+        <v>1.203982459562625</v>
       </c>
       <c r="G19">
-        <v>-1.335236567061744</v>
+        <v>-1.302543540621254</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.186532234128927</v>
+        <v>1.20398245924443</v>
       </c>
       <c r="G20">
-        <v>-1.335236581804713</v>
+        <v>-1.302543558634824</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -27052,10 +27052,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.186532234033986</v>
+        <v>1.203982459138365</v>
       </c>
       <c r="G21">
-        <v>-1.335236586719037</v>
+        <v>-1.302543564639348</v>
       </c>
     </row>
   </sheetData>
@@ -30855,10 +30855,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8877387022732144</v>
+        <v>0.8878451925263905</v>
       </c>
       <c r="C2">
-        <v>15.37608536182468</v>
+        <v>15.3779298271148</v>
       </c>
       <c r="D2">
         <v>0.01094540889423946</v>
@@ -30867,10 +30867,10 @@
         <v>0.1094540870674545</v>
       </c>
       <c r="F2">
-        <v>1.087253422744467</v>
+        <v>1.087383846135903</v>
       </c>
       <c r="G2">
-        <v>45.00000000001038</v>
+        <v>45.00000000001025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -30890,10 +30890,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.141711595885961</v>
+        <v>1.159995108881434</v>
       </c>
       <c r="G3">
-        <v>-0.4866864287454984</v>
+        <v>-0.4645135949684242</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -30913,10 +30913,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.189006469150707</v>
+        <v>1.207281514714801</v>
       </c>
       <c r="G4">
-        <v>-1.330519509215609</v>
+        <v>-1.296438671557913</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -30936,10 +30936,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.173213625824561</v>
+        <v>1.191491846925686</v>
       </c>
       <c r="G5">
-        <v>-1.056803270011037</v>
+        <v>-1.026469364026973</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -30959,10 +30959,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.18900646890079</v>
+        <v>1.20728151444185</v>
       </c>
       <c r="G6">
-        <v>-1.330519497163845</v>
+        <v>-1.296438662112801</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -30982,10 +30982,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.204825735968467</v>
+        <v>1.223097293212177</v>
       </c>
       <c r="G7">
-        <v>-1.597053924866981</v>
+        <v>-1.559431762630602</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -31005,10 +31005,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.220670400066154</v>
+        <v>1.238938183657243</v>
       </c>
       <c r="G8">
-        <v>-1.85667443490706</v>
+        <v>-1.81570493462373</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -31028,10 +31028,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.204825735624921</v>
+        <v>1.223097292833965</v>
       </c>
       <c r="G9">
-        <v>-1.597053942507029</v>
+        <v>-1.559431783603748</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -31051,10 +31051,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.204825735395891</v>
+        <v>1.223097292581824</v>
       </c>
       <c r="G10">
-        <v>-1.597053954267061</v>
+        <v>-1.559431797585844</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -31074,10 +31074,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.204825735281376</v>
+        <v>1.223097292455754</v>
       </c>
       <c r="G11">
-        <v>-1.597053960147077</v>
+        <v>-1.559431804576893</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31097,10 +31097,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.15744828880675</v>
+        <v>1.17572934315788</v>
       </c>
       <c r="G12">
-        <v>-0.7756240161348189</v>
+        <v>-0.7492550268949905</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.141711595761307</v>
+        <v>1.191491848079682</v>
       </c>
       <c r="G13">
-        <v>-0.4866864364212963</v>
+        <v>-1.026469328659728</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -31143,10 +31143,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.157448288560838</v>
+        <v>1.175729342876421</v>
       </c>
       <c r="G14">
-        <v>-0.7756240203138535</v>
+        <v>-0.7492550347319523</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -31166,10 +31166,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.157448288348303</v>
+        <v>1.175729342640189</v>
       </c>
       <c r="G15">
-        <v>-0.775624023030845</v>
+        <v>-0.7492550398875463</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -31189,10 +31189,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.157448288866789</v>
+        <v>1.175729343229787</v>
       </c>
       <c r="G16">
-        <v>-0.7756240127245031</v>
+        <v>-0.7492550222962399</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -31212,10 +31212,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.141711595802858</v>
+        <v>1.17572934321896</v>
       </c>
       <c r="G17">
-        <v>-0.4866864338626971</v>
+        <v>-0.7492550221031009</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -31235,10 +31235,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.173213626249088</v>
+        <v>1.19149184739712</v>
       </c>
       <c r="G18">
-        <v>-1.056803264548265</v>
+        <v>-1.02646935374239</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -31258,10 +31258,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.18900646953677</v>
+        <v>1.207281515147482</v>
       </c>
       <c r="G19">
-        <v>-1.330519488932025</v>
+        <v>-1.296438646729728</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31281,10 +31281,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.189006469247223</v>
+        <v>1.207281514822971</v>
       </c>
       <c r="G20">
-        <v>-1.330519504144712</v>
+        <v>-1.296438665350866</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -31304,10 +31304,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.189006469150707</v>
+        <v>1.207281514714801</v>
       </c>
       <c r="G21">
-        <v>-1.330519509215608</v>
+        <v>-1.296438671557913</v>
       </c>
     </row>
   </sheetData>
@@ -33374,55 +33374,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.0180028718889</v>
+        <v>50.02400288421605</v>
       </c>
       <c r="D2">
-        <v>50.0180028718889</v>
+        <v>50.02400288421605</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.7790742241253</v>
+        <v>288.8137153114475</v>
       </c>
       <c r="G2">
-        <v>288.7790742241253</v>
+        <v>288.8137153114475</v>
       </c>
       <c r="H2">
-        <v>0.0109422858176125</v>
+        <v>0.01094228581761251</v>
       </c>
       <c r="I2">
         <v>0.1094383951790285</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714032</v>
+        <v>0.01094540889714031</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540903843078</v>
+        <v>0.01094540908575296</v>
       </c>
       <c r="M2">
-        <v>0.1094540868536019</v>
+        <v>0.1094540867823191</v>
       </c>
       <c r="N2">
-        <v>0.952970909808594</v>
+        <v>0.9530852248187819</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9529709098115998</v>
+        <v>0.953085224821783</v>
       </c>
       <c r="Q2">
-        <v>-4.241940889096284E-08</v>
+        <v>-5.653023234974116E-08</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999577464</v>
+        <v>179.9999999436358</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -33466,22 +33466,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9979334843712805</v>
+        <v>1.013184935530478</v>
       </c>
       <c r="O3">
-        <v>0.05199963600877128</v>
+        <v>0.06933284707107816</v>
       </c>
       <c r="P3">
-        <v>0.998739622195541</v>
+        <v>1.014243601689859</v>
       </c>
       <c r="Q3">
-        <v>1.534729413835889</v>
+        <v>2.01567761141381</v>
       </c>
       <c r="R3">
-        <v>-89.06944501912866</v>
+        <v>-89.06945410788799</v>
       </c>
       <c r="S3">
-        <v>178.5504265364033</v>
+        <v>178.0966330881814</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -33525,22 +33525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.047822789288711</v>
+        <v>1.063125569292781</v>
       </c>
       <c r="O4">
-        <v>0.1004685061815887</v>
+        <v>0.117543900471913</v>
       </c>
       <c r="P4">
-        <v>1.032184928763568</v>
+        <v>1.047970323252105</v>
       </c>
       <c r="Q4">
-        <v>1.899095880452005</v>
+        <v>2.352226560041459</v>
       </c>
       <c r="R4">
-        <v>-99.77996775517218</v>
+        <v>-98.20956825947414</v>
       </c>
       <c r="S4">
-        <v>176.4293230535546</v>
+        <v>176.0217447323648</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -33584,22 +33584,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.031188462464271</v>
+        <v>1.046474743485704</v>
       </c>
       <c r="O5">
-        <v>0.08407198708737938</v>
+        <v>0.1012466861020262</v>
       </c>
       <c r="P5">
-        <v>1.020882754626883</v>
+        <v>1.036578697621647</v>
       </c>
       <c r="Q5">
-        <v>1.78155798926162</v>
+        <v>2.243612877593572</v>
       </c>
       <c r="R5">
-        <v>-97.58406585413505</v>
+        <v>-96.13159162752558</v>
       </c>
       <c r="S5">
-        <v>177.1208806122522</v>
+        <v>176.6983394728049</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -33643,22 +33643,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.047822787499108</v>
+        <v>1.063125567511935</v>
       </c>
       <c r="O6">
-        <v>0.1004685068961558</v>
+        <v>0.1175439012636753</v>
       </c>
       <c r="P6">
-        <v>1.032184930209326</v>
+        <v>1.047970324658517</v>
       </c>
       <c r="Q6">
-        <v>1.899095928839348</v>
+        <v>2.352226605606782</v>
       </c>
       <c r="R6">
-        <v>-99.77996581115374</v>
+        <v>-98.20956663281483</v>
       </c>
       <c r="S6">
-        <v>176.4293230330835</v>
+        <v>176.0217447109395</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -33702,22 +33702,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.064461385066322</v>
+        <v>1.079780094866417</v>
       </c>
       <c r="O7">
-        <v>0.1169711289856822</v>
+        <v>0.1339580092888077</v>
       </c>
       <c r="P7">
-        <v>1.04363420825049</v>
+        <v>1.059504934111466</v>
       </c>
       <c r="Q7">
-        <v>2.01295985040442</v>
+        <v>2.457490174041451</v>
       </c>
       <c r="R7">
-        <v>-101.3580638050427</v>
+        <v>-99.77997206622945</v>
       </c>
       <c r="S7">
-        <v>175.7528422905748</v>
+        <v>175.3597912145809</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -33761,22 +33761,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.081104060260835</v>
+        <v>1.096438159147036</v>
       </c>
       <c r="O8">
-        <v>0.1335405225098904</v>
+        <v>0.150450755045698</v>
       </c>
       <c r="P8">
-        <v>1.055225798657152</v>
+        <v>1.071177905188246</v>
       </c>
       <c r="Q8">
-        <v>2.12331847296407</v>
+        <v>2.559555519906018</v>
       </c>
       <c r="R8">
-        <v>-102.545274865648</v>
+        <v>-101.006837986399</v>
       </c>
       <c r="S8">
-        <v>175.0911332647446</v>
+        <v>174.7121799627489</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -33820,22 +33820,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.064461382744977</v>
+        <v>1.079780092552829</v>
       </c>
       <c r="O9">
-        <v>0.1169711300751319</v>
+        <v>0.1339580104775347</v>
       </c>
       <c r="P9">
-        <v>1.043634210112903</v>
+        <v>1.059504935919778</v>
       </c>
       <c r="Q9">
-        <v>2.012959887039163</v>
+        <v>2.45749020684719</v>
       </c>
       <c r="R9">
-        <v>-101.3580616434607</v>
+        <v>-99.77997022519118</v>
       </c>
       <c r="S9">
-        <v>175.7528422244793</v>
+        <v>175.3597911474207</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -33879,22 +33879,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.064461381197414</v>
+        <v>1.079780091010436</v>
       </c>
       <c r="O10">
-        <v>0.1169711308014316</v>
+        <v>0.1339580112700195</v>
       </c>
       <c r="P10">
-        <v>1.043634211354511</v>
+        <v>1.059504937125318</v>
       </c>
       <c r="Q10">
-        <v>2.012959911462322</v>
+        <v>2.457490228717679</v>
       </c>
       <c r="R10">
-        <v>-101.3580602024061</v>
+        <v>-99.77996899783234</v>
       </c>
       <c r="S10">
-        <v>175.7528421804157</v>
+        <v>175.3597911026472</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -33938,22 +33938,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.064461380423633</v>
+        <v>1.07978009023924</v>
       </c>
       <c r="O11">
-        <v>0.1169711311645813</v>
+        <v>0.1339580116662619</v>
       </c>
       <c r="P11">
-        <v>1.043634211975316</v>
+        <v>1.05950493772809</v>
       </c>
       <c r="Q11">
-        <v>2.012959923673894</v>
+        <v>2.457490239652925</v>
       </c>
       <c r="R11">
-        <v>-101.3580594818788</v>
+        <v>-99.77996838415288</v>
       </c>
       <c r="S11">
-        <v>175.7528421583839</v>
+        <v>175.3597910802605</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -33997,22 +33997,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.014558624054455</v>
+        <v>1.029827806342457</v>
       </c>
       <c r="O12">
-        <v>0.06785852232287271</v>
+        <v>0.08513351829889114</v>
       </c>
       <c r="P12">
-        <v>1.00973261782171</v>
+        <v>1.025334815423265</v>
       </c>
       <c r="Q12">
-        <v>1.660166241945695</v>
+        <v>2.131487204804318</v>
       </c>
       <c r="R12">
-        <v>-94.3319653609045</v>
+        <v>-93.26196563635878</v>
       </c>
       <c r="S12">
-        <v>177.8278164882328</v>
+        <v>177.3898717244189</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -34056,22 +34056,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9979334821448241</v>
+        <v>1.046474752882202</v>
       </c>
       <c r="O13">
-        <v>0.05199963824366331</v>
+        <v>0.1012466799798768</v>
       </c>
       <c r="P13">
-        <v>0.9987396242971204</v>
+        <v>1.036578689689664</v>
       </c>
       <c r="Q13">
-        <v>1.534729468598533</v>
+        <v>2.243612683923893</v>
       </c>
       <c r="R13">
-        <v>-89.06944029708822</v>
+        <v>-96.13160178574809</v>
       </c>
       <c r="S13">
-        <v>178.550426466507</v>
+        <v>176.698339715359</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -34115,22 +34115,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.014558621689923</v>
+        <v>1.029827803988793</v>
       </c>
       <c r="O14">
-        <v>0.06785852402918437</v>
+        <v>0.08513352005914356</v>
       </c>
       <c r="P14">
-        <v>1.009732619864462</v>
+        <v>1.025334817410079</v>
       </c>
       <c r="Q14">
-        <v>1.660166296359605</v>
+        <v>2.131487255021917</v>
       </c>
       <c r="R14">
-        <v>-94.3319615327259</v>
+        <v>-93.26196265670734</v>
       </c>
       <c r="S14">
-        <v>177.8278164273679</v>
+        <v>177.3898716626408</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -34174,22 +34174,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.014558620069848</v>
+        <v>1.029827802375791</v>
       </c>
       <c r="O15">
-        <v>0.06785852511813512</v>
+        <v>0.08513352118403428</v>
       </c>
       <c r="P15">
-        <v>1.009732621184302</v>
+        <v>1.025334818692441</v>
       </c>
       <c r="Q15">
-        <v>1.660166331435446</v>
+        <v>2.131487287338129</v>
       </c>
       <c r="R15">
-        <v>-94.33195898197891</v>
+        <v>-93.26196067075615</v>
       </c>
       <c r="S15">
-        <v>177.8278163881811</v>
+        <v>177.3898716228059</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -34233,22 +34233,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.014558624804337</v>
+        <v>1.02982780708893</v>
       </c>
       <c r="O16">
-        <v>0.06785852172968307</v>
+        <v>0.08513351768845923</v>
       </c>
       <c r="P16">
-        <v>1.009732617141049</v>
+        <v>1.025334814760896</v>
       </c>
       <c r="Q16">
-        <v>1.660166225274876</v>
+        <v>2.13148718952797</v>
       </c>
       <c r="R16">
-        <v>-94.33196660377304</v>
+        <v>-93.26196660281767</v>
       </c>
       <c r="S16">
-        <v>177.8278165111473</v>
+        <v>177.3898717475979</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -34292,22 +34292,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.997933482886976</v>
+        <v>1.029827807077492</v>
       </c>
       <c r="O17">
-        <v>0.0519996374986992</v>
+        <v>0.08513351767746494</v>
       </c>
       <c r="P17">
-        <v>0.9987396235965939</v>
+        <v>1.02533481475322</v>
       </c>
       <c r="Q17">
-        <v>1.534729450344318</v>
+        <v>2.131487189449691</v>
       </c>
       <c r="R17">
-        <v>-89.06944187110162</v>
+        <v>-93.26196660047489</v>
       </c>
       <c r="S17">
-        <v>178.5504264898058</v>
+        <v>177.3898717480788</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -34351,22 +34351,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.031188465701781</v>
+        <v>1.046474746709428</v>
       </c>
       <c r="O18">
-        <v>0.08407198525574414</v>
+        <v>0.1012466841505262</v>
       </c>
       <c r="P18">
-        <v>1.020882751970363</v>
+        <v>1.036578695039902</v>
       </c>
       <c r="Q18">
-        <v>1.781557919859996</v>
+        <v>2.243612813643777</v>
       </c>
       <c r="R18">
-        <v>-97.58407004936517</v>
+        <v>-96.13159502686015</v>
       </c>
       <c r="S18">
-        <v>177.1208806879361</v>
+        <v>176.6983395498936</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -34410,22 +34410,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.047822792351518</v>
+        <v>1.063125572344191</v>
       </c>
       <c r="O19">
-        <v>0.1004685045045216</v>
+        <v>0.1175438986650634</v>
       </c>
       <c r="P19">
-        <v>1.032184926200422</v>
+        <v>1.047970320761466</v>
       </c>
       <c r="Q19">
-        <v>1.899095825845018</v>
+        <v>2.352226510690623</v>
       </c>
       <c r="R19">
-        <v>-99.77997113317127</v>
+        <v>-98.20957107370006</v>
       </c>
       <c r="S19">
-        <v>176.4293231426883</v>
+        <v>176.0217448228075</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -34469,22 +34469,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.047822790054413</v>
+        <v>1.063125570055633</v>
       </c>
       <c r="O20">
-        <v>0.1004685057623219</v>
+        <v>0.1175439000202007</v>
       </c>
       <c r="P20">
-        <v>1.032184928122782</v>
+        <v>1.047970322629445</v>
       </c>
       <c r="Q20">
-        <v>1.899095866800267</v>
+        <v>2.352226547703757</v>
       </c>
       <c r="R20">
-        <v>-99.77996859967196</v>
+        <v>-98.20956896303065</v>
       </c>
       <c r="S20">
-        <v>176.4293230758381</v>
+        <v>176.0217447549755</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -34528,22 +34528,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.047822789288711</v>
+        <v>1.063125569292781</v>
       </c>
       <c r="O21">
-        <v>0.1004685061815885</v>
+        <v>0.1175439004719129</v>
       </c>
       <c r="P21">
-        <v>1.032184928763568</v>
+        <v>1.047970323252105</v>
       </c>
       <c r="Q21">
-        <v>1.899095880452004</v>
+        <v>2.352226560041461</v>
       </c>
       <c r="R21">
-        <v>-99.77996775517215</v>
+        <v>-98.20956825947417</v>
       </c>
       <c r="S21">
-        <v>176.4293230535546</v>
+        <v>176.0217447323648</v>
       </c>
     </row>
   </sheetData>
